--- a/scenarios.xlsx
+++ b/scenarios.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maximilianeber/Code/covid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0850BA-80F6-DF4E-86AE-F65CE347CB75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3FE78B-EF6A-3C4C-AB27-1DEFEC778103}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7640" yWindow="860" windowWidth="42200" windowHeight="26580" xr2:uid="{AD3505E7-8BAD-4346-ACFA-3E10E21EA57D}"/>
+    <workbookView xWindow="12340" yWindow="460" windowWidth="37500" windowHeight="26980" xr2:uid="{AD3505E7-8BAD-4346-ACFA-3E10E21EA57D}"/>
   </bookViews>
   <sheets>
     <sheet name="Modell" sheetId="1" r:id="rId1"/>
+    <sheet name="Daten und Berechnung" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,15 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Datum</t>
-  </si>
-  <si>
-    <t>5% bis 20%</t>
-  </si>
-  <si>
-    <t>0.5% bis 4%</t>
   </si>
   <si>
     <t>Kapazität ICU kurzfristig</t>
@@ -62,16 +57,10 @@
     <t>Anteil ICU an gemeldeten Fällen</t>
   </si>
   <si>
-    <t>20% frei von insgesamt 28k</t>
-  </si>
-  <si>
     <t>Gemeldete Fälle</t>
   </si>
   <si>
     <t>Kumulative Fälle</t>
-  </si>
-  <si>
-    <t>Krankenhaus Einlieferung</t>
   </si>
   <si>
     <t>Krankenhaus Kumulativ</t>
@@ -107,16 +96,43 @@
     <t>2-5 Tage im März 2020</t>
   </si>
   <si>
-    <t>28k zusätzliche ICUs</t>
+    <t>Daten und Berechnungen</t>
   </si>
   <si>
-    <t>Modell Parameter</t>
+    <t>Anderweitige Auslastung ICUs kurzfristig</t>
   </si>
   <si>
-    <t>Berechnete Parameter</t>
+    <t>Krankenhaus Einlieferungen</t>
   </si>
   <si>
-    <t>Daten und Berechnungen</t>
+    <t>Gesamtkapazität ICU kurzfristig</t>
+  </si>
+  <si>
+    <t>Zusätzliche Kapazität ICU langfristig</t>
+  </si>
+  <si>
+    <t>28k zusätzliche ICUs beschlossen</t>
+  </si>
+  <si>
+    <t>Wert</t>
+  </si>
+  <si>
+    <t>Abgeleitete Parameter</t>
+  </si>
+  <si>
+    <t>ca. 5% bis 20%</t>
+  </si>
+  <si>
+    <t>ca. 0.25% bis 4%</t>
+  </si>
+  <si>
+    <t>Modellannahmen</t>
+  </si>
+  <si>
+    <t>ca. 50% bis 80%</t>
+  </si>
+  <si>
+    <t>Datenquelle: ECDC</t>
   </si>
 </sst>
 </file>
@@ -128,7 +144,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -170,6 +186,14 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -234,7 +258,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -250,6 +274,8 @@
     <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="5"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -307,7 +333,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>ICU Fälle</a:t>
+              <a:t>Aktive ICU Fälle</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -366,7 +392,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Modell!$O$3</c:f>
+              <c:f>'Daten und Berechnung'!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -391,7 +417,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Modell!$H$4:$H$102</c:f>
+              <c:f>'Daten und Berechnung'!$A$3:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="99"/>
@@ -619,7 +645,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Modell!$O$4:$O$102</c:f>
+              <c:f>'Daten und Berechnung'!$H$3:$H$101</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="99"/>
@@ -627,220 +653,220 @@
                   <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.70199999999999996</c:v>
+                  <c:v>0.69839999999999991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9585999999999999</c:v>
+                  <c:v>0.95046399999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3166466666666665</c:v>
+                  <c:v>1.3024454399999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9327584444444441</c:v>
+                  <c:v>1.9103476224</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2483331629629628</c:v>
+                  <c:v>3.2139337175040001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.9800553908641971</c:v>
+                  <c:v>5.9253763688038399</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.4107202111687256</c:v>
+                  <c:v>7.3183613140516863</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.713696204129767</c:v>
+                  <c:v>7.5756268614896189</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.8265729973254423</c:v>
+                  <c:v>9.6426017870300349</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.06902056408126</c:v>
+                  <c:v>10.826897715548833</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.410053211945218</c:v>
+                  <c:v>13.103821806926881</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.983051438213714</c:v>
+                  <c:v>20.599668934649806</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27.213616390273259</c:v>
+                  <c:v>26.705682177263814</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>33.636495843930817</c:v>
+                  <c:v>32.967454890173258</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42.945279315799795</c:v>
+                  <c:v>42.07875669456633</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>53.25377000527314</c:v>
+                  <c:v>52.135606426783674</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>62.918644338430695</c:v>
+                  <c:v>61.490182169712327</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>71.241356193816344</c:v>
+                  <c:v>69.450574882923831</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>128.26664432068912</c:v>
+                  <c:v>126.07255188760688</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>164.48108950999949</c:v>
+                  <c:v>161.51964981210261</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>191.75838652633286</c:v>
+                  <c:v>187.81886381961849</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>218.47644030878845</c:v>
+                  <c:v>213.41610926683379</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>255.57389229849554</c:v>
+                  <c:v>249.25946489616041</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>270.47476255521229</c:v>
+                  <c:v>262.70908630031397</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>288.02453640652294</c:v>
+                  <c:v>294.50513796420626</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>308.55741043768643</c:v>
+                  <c:v>330.71136025576391</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>332.45318749815635</c:v>
+                  <c:v>371.91451180598773</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>360.14337821135564</c:v>
+                  <c:v>418.78038357790086</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>392.11812279303814</c:v>
+                  <c:v>472.06440496638248</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>428.93404332930476</c:v>
+                  <c:v>532.62367478730209</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>471.22315146089892</c:v>
+                  <c:v>601.43060852213739</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>519.70295320315961</c:v>
+                  <c:v>679.58841888770917</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>575.18791166787082</c:v>
+                  <c:v>768.34867595637911</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>638.60245004696912</c:v>
+                  <c:v>869.1312261237382</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>710.99570171207029</c:v>
+                  <c:v>983.54678673440162</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>793.55824206760565</c:v>
+                  <c:v>1113.4225757286451</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>887.64106831087565</c:v>
+                  <c:v>1260.831383940003</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>994.77712900075107</c:v>
+                  <c:v>1428.1245524242204</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1116.7057458866111</c:v>
+                  <c:v>1617.9693793038623</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1255.4003164453015</c:v>
+                  <c:v>1833.3915510580987</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1413.0997377479298</c:v>
+                  <c:v>2077.823273094074</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1592.3440514599495</c:v>
+                  <c:v>2355.157865075621</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1796.0148769084471</c:v>
+                  <c:v>2669.8116892984249</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2027.381275297432</c:v>
+                  <c:v>3026.7943970232009</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2290.1517745262936</c:v>
+                  <c:v>3431.7886099647308</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2588.5333820420838</c:v>
+                  <c:v>3891.2403041885927</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2927.2985242910986</c:v>
+                  <c:v>4412.461333875528</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3311.8609773968233</c:v>
+                  <c:v>5003.7457254825222</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3748.3619966845486</c:v>
+                  <c:v>5674.5015918304925</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4243.7680148719364</c:v>
+                  <c:v>6435.4007640637165</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4805.9814627291817</c:v>
+                  <c:v>7298.5485212067315</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5443.966474708096</c:v>
+                  <c:v>8277.6761166716606</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6167.8914787656304</c:v>
+                  <c:v>9388.3591636260389</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6989.2909381287618</c:v>
+                  <c:v>10648.265352384315</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>7921.2488173348693</c:v>
+                  <c:v>12077.435439475796</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>8978.6066903788123</c:v>
+                  <c:v>13698.601977186596</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>10178.199800699522</c:v>
+                  <c:v>15537.550852588942</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>11539.124827277876</c:v>
+                  <c:v>17623.531385903298</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>13083.043615363662</c:v>
+                  <c:v>19989.721510315227</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>14834.527702322017</c:v>
+                  <c:v>22673.755431371701</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>16821.449117885444</c:v>
+                  <c:v>25718.322157742612</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>19075.423674034508</c:v>
+                  <c:v>29171.844422255162</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>21632.313794512906</c:v>
+                  <c:v>33089.248790617748</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>24532.798880887025</c:v>
+                  <c:v>37532.839205478012</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>27823.022286145399</c:v>
+                  <c:v>42573.287858472162</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>31555.325185182151</c:v>
+                  <c:v>48290.759148880694</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>35789.079013496499</c:v>
+                  <c:v>54776.184604084803</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>40591.629713046626</c:v>
+                  <c:v>62132.709037880653</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>46039.368802351768</c:v>
+                  <c:v>70477.330946037095</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>52218.948304920246</c:v>
+                  <c:v>79942.763227587857</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>59228.658857971481</c:v>
+                  <c:v>90679.543824360706</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>67179.992918602424</c:v>
+                  <c:v>102858.42984588939</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -857,7 +883,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Modell!$P$3</c:f>
+              <c:f>'Daten und Berechnung'!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -883,7 +909,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Modell!$H$4:$H$102</c:f>
+              <c:f>'Daten und Berechnung'!$A$3:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="99"/>
@@ -1111,228 +1137,228 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Modell!$P$4:$P$102</c:f>
+              <c:f>'Daten und Berechnung'!$I$3:$I$101</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1349,7 +1375,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Modell!$Q$3</c:f>
+              <c:f>'Daten und Berechnung'!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1375,7 +1401,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Modell!$H$4:$H$102</c:f>
+              <c:f>'Daten und Berechnung'!$A$3:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="99"/>
@@ -1603,7 +1629,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Modell!$Q$4:$Q$102</c:f>
+              <c:f>'Daten und Berechnung'!$J$3:$J$101</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="99"/>
@@ -2126,7 +2152,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Modell!$N$3</c:f>
+              <c:f>'Daten und Berechnung'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2151,7 +2177,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Modell!$H$4:$H$102</c:f>
+              <c:f>'Daten und Berechnung'!$A$3:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="99"/>
@@ -2379,7 +2405,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Modell!$N$4:$N$102</c:f>
+              <c:f>'Daten und Berechnung'!$G$3:$G$101</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="99"/>
@@ -2387,220 +2413,220 @@
                   <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0200000000000005</c:v>
+                  <c:v>6.984</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.5860000000000003</c:v>
+                  <c:v>9.5046400000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.166466666666667</c:v>
+                  <c:v>13.0244544</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.327584444444444</c:v>
+                  <c:v>19.103476224000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.483331629629632</c:v>
+                  <c:v>32.139337175040005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>59.80055390864198</c:v>
+                  <c:v>59.253763688038404</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74.107202111687258</c:v>
+                  <c:v>73.183613140516869</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>77.136962041297679</c:v>
+                  <c:v>75.7562686148962</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>98.265729973254423</c:v>
+                  <c:v>96.426017870300356</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>110.69020564081261</c:v>
+                  <c:v>108.26897715548834</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>134.1005321194522</c:v>
+                  <c:v>131.03821806926882</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>209.83051438213715</c:v>
+                  <c:v>205.99668934649807</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>272.13616390273262</c:v>
+                  <c:v>267.05682177263816</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>336.36495843930823</c:v>
+                  <c:v>329.67454890173263</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>429.45279315799797</c:v>
+                  <c:v>420.78756694566334</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>532.53770005273145</c:v>
+                  <c:v>521.35606426783681</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>629.18644338430704</c:v>
+                  <c:v>614.9018216971233</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>712.41356193816353</c:v>
+                  <c:v>694.50574882923843</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1282.6664432068915</c:v>
+                  <c:v>1260.7255188760689</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1644.8108950999952</c:v>
+                  <c:v>1615.1964981210263</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1917.5838652633288</c:v>
+                  <c:v>1878.1886381961851</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2184.7644030878846</c:v>
+                  <c:v>2134.1610926683379</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2555.7389229849555</c:v>
+                  <c:v>2492.5946489616044</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2704.7476255521233</c:v>
+                  <c:v>2627.0908630031399</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2880.2453640652298</c:v>
+                  <c:v>2945.0513796420628</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3085.5741043768644</c:v>
+                  <c:v>3307.1136025576393</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3324.5318749815638</c:v>
+                  <c:v>3719.1451180598779</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3601.4337821135568</c:v>
+                  <c:v>4187.8038357790092</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3921.1812279303817</c:v>
+                  <c:v>4720.6440496638252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4289.3404332930477</c:v>
+                  <c:v>5326.2367478730212</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4712.2315146089895</c:v>
+                  <c:v>6014.3060852213748</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5197.0295320315963</c:v>
+                  <c:v>6795.8841888770921</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5751.8791166787087</c:v>
+                  <c:v>7683.4867595637916</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6386.0245004696917</c:v>
+                  <c:v>8691.3122612373827</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7109.9570171207033</c:v>
+                  <c:v>9835.4678673440176</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7935.5824206760572</c:v>
+                  <c:v>11134.225757286453</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8876.4106831087574</c:v>
+                  <c:v>12608.313839400031</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9947.7712900075112</c:v>
+                  <c:v>14281.245524242206</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>11167.057458866111</c:v>
+                  <c:v>16179.693793038625</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>12554.003164453015</c:v>
+                  <c:v>18333.915510580988</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>14130.9973774793</c:v>
+                  <c:v>20778.232730940741</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>15923.440514599497</c:v>
+                  <c:v>23551.578650756212</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>17960.148769084473</c:v>
+                  <c:v>26698.11689298425</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>20273.812752974321</c:v>
+                  <c:v>30267.943970232012</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>22901.517745262936</c:v>
+                  <c:v>34317.886099647309</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>25885.333820420841</c:v>
+                  <c:v>38912.403041885933</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>29272.985242910989</c:v>
+                  <c:v>44124.613338755284</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>33118.609773968237</c:v>
+                  <c:v>50037.457254825225</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>37483.619966845486</c:v>
+                  <c:v>56745.015918304933</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>42437.680148719366</c:v>
+                  <c:v>64354.007640637166</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>48059.814627291824</c:v>
+                  <c:v>72985.485212067317</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>54439.664747080962</c:v>
+                  <c:v>82776.76116671662</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>61678.914787656307</c:v>
+                  <c:v>93883.591636260389</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>69892.909381287624</c:v>
+                  <c:v>106482.65352384315</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>79212.488173348698</c:v>
+                  <c:v>120774.35439475797</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>89786.066903788131</c:v>
+                  <c:v>136986.01977186598</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>101781.99800699523</c:v>
+                  <c:v>155375.50852588943</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>115391.24827277877</c:v>
+                  <c:v>176235.31385903299</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>130830.43615363663</c:v>
+                  <c:v>199897.21510315227</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>148345.27702322017</c:v>
+                  <c:v>226737.55431371703</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>168214.49117885446</c:v>
+                  <c:v>257183.22157742613</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>190754.23674034508</c:v>
+                  <c:v>291718.44422255165</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>216323.13794512907</c:v>
+                  <c:v>330892.48790617753</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>245327.98880887026</c:v>
+                  <c:v>375328.39205478015</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>278230.22286145401</c:v>
+                  <c:v>425732.87858472165</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>315553.25185182155</c:v>
+                  <c:v>482907.591488807</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>357890.79013496503</c:v>
+                  <c:v>547761.84604084806</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>405916.29713046632</c:v>
+                  <c:v>621327.09037880658</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>460393.68802351772</c:v>
+                  <c:v>704773.30946037103</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>522189.48304920248</c:v>
+                  <c:v>799427.63227587868</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>592286.58857971488</c:v>
+                  <c:v>906795.43824360718</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>671799.92918602424</c:v>
+                  <c:v>1028584.298458894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2902,7 +2928,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Modell!$N$3</c:f>
+              <c:f>'Daten und Berechnung'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2927,7 +2953,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Modell!$H$4:$H$102</c:f>
+              <c:f>'Daten und Berechnung'!$A$3:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="99"/>
@@ -3155,7 +3181,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Modell!$N$4:$N$102</c:f>
+              <c:f>'Daten und Berechnung'!$G$3:$G$101</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="99"/>
@@ -3163,220 +3189,220 @@
                   <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0200000000000005</c:v>
+                  <c:v>6.984</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.5860000000000003</c:v>
+                  <c:v>9.5046400000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.166466666666667</c:v>
+                  <c:v>13.0244544</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.327584444444444</c:v>
+                  <c:v>19.103476224000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.483331629629632</c:v>
+                  <c:v>32.139337175040005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>59.80055390864198</c:v>
+                  <c:v>59.253763688038404</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74.107202111687258</c:v>
+                  <c:v>73.183613140516869</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>77.136962041297679</c:v>
+                  <c:v>75.7562686148962</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>98.265729973254423</c:v>
+                  <c:v>96.426017870300356</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>110.69020564081261</c:v>
+                  <c:v>108.26897715548834</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>134.1005321194522</c:v>
+                  <c:v>131.03821806926882</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>209.83051438213715</c:v>
+                  <c:v>205.99668934649807</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>272.13616390273262</c:v>
+                  <c:v>267.05682177263816</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>336.36495843930823</c:v>
+                  <c:v>329.67454890173263</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>429.45279315799797</c:v>
+                  <c:v>420.78756694566334</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>532.53770005273145</c:v>
+                  <c:v>521.35606426783681</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>629.18644338430704</c:v>
+                  <c:v>614.9018216971233</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>712.41356193816353</c:v>
+                  <c:v>694.50574882923843</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1282.6664432068915</c:v>
+                  <c:v>1260.7255188760689</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1644.8108950999952</c:v>
+                  <c:v>1615.1964981210263</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1917.5838652633288</c:v>
+                  <c:v>1878.1886381961851</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2184.7644030878846</c:v>
+                  <c:v>2134.1610926683379</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2555.7389229849555</c:v>
+                  <c:v>2492.5946489616044</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2704.7476255521233</c:v>
+                  <c:v>2627.0908630031399</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2880.2453640652298</c:v>
+                  <c:v>2945.0513796420628</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3085.5741043768644</c:v>
+                  <c:v>3307.1136025576393</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3324.5318749815638</c:v>
+                  <c:v>3719.1451180598779</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3601.4337821135568</c:v>
+                  <c:v>4187.8038357790092</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3921.1812279303817</c:v>
+                  <c:v>4720.6440496638252</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4289.3404332930477</c:v>
+                  <c:v>5326.2367478730212</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4712.2315146089895</c:v>
+                  <c:v>6014.3060852213748</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5197.0295320315963</c:v>
+                  <c:v>6795.8841888770921</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5751.8791166787087</c:v>
+                  <c:v>7683.4867595637916</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6386.0245004696917</c:v>
+                  <c:v>8691.3122612373827</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7109.9570171207033</c:v>
+                  <c:v>9835.4678673440176</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7935.5824206760572</c:v>
+                  <c:v>11134.225757286453</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8876.4106831087574</c:v>
+                  <c:v>12608.313839400031</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9947.7712900075112</c:v>
+                  <c:v>14281.245524242206</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>11167.057458866111</c:v>
+                  <c:v>16179.693793038625</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>12554.003164453015</c:v>
+                  <c:v>18333.915510580988</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>14130.9973774793</c:v>
+                  <c:v>20778.232730940741</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>15923.440514599497</c:v>
+                  <c:v>23551.578650756212</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>17960.148769084473</c:v>
+                  <c:v>26698.11689298425</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>20273.812752974321</c:v>
+                  <c:v>30267.943970232012</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>22901.517745262936</c:v>
+                  <c:v>34317.886099647309</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>25885.333820420841</c:v>
+                  <c:v>38912.403041885933</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>29272.985242910989</c:v>
+                  <c:v>44124.613338755284</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>33118.609773968237</c:v>
+                  <c:v>50037.457254825225</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>37483.619966845486</c:v>
+                  <c:v>56745.015918304933</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>42437.680148719366</c:v>
+                  <c:v>64354.007640637166</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>48059.814627291824</c:v>
+                  <c:v>72985.485212067317</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>54439.664747080962</c:v>
+                  <c:v>82776.76116671662</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>61678.914787656307</c:v>
+                  <c:v>93883.591636260389</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>69892.909381287624</c:v>
+                  <c:v>106482.65352384315</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>79212.488173348698</c:v>
+                  <c:v>120774.35439475797</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>89786.066903788131</c:v>
+                  <c:v>136986.01977186598</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>101781.99800699523</c:v>
+                  <c:v>155375.50852588943</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>115391.24827277877</c:v>
+                  <c:v>176235.31385903299</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>130830.43615363663</c:v>
+                  <c:v>199897.21510315227</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>148345.27702322017</c:v>
+                  <c:v>226737.55431371703</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>168214.49117885446</c:v>
+                  <c:v>257183.22157742613</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>190754.23674034508</c:v>
+                  <c:v>291718.44422255165</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>216323.13794512907</c:v>
+                  <c:v>330892.48790617753</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>245327.98880887026</c:v>
+                  <c:v>375328.39205478015</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>278230.22286145401</c:v>
+                  <c:v>425732.87858472165</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>315553.25185182155</c:v>
+                  <c:v>482907.591488807</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>357890.79013496503</c:v>
+                  <c:v>547761.84604084806</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>405916.29713046632</c:v>
+                  <c:v>621327.09037880658</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>460393.68802351772</c:v>
+                  <c:v>704773.30946037103</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>522189.48304920248</c:v>
+                  <c:v>799427.63227587868</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>592286.58857971488</c:v>
+                  <c:v>906795.43824360718</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>671799.92918602424</c:v>
+                  <c:v>1028584.298458894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3625,7 +3651,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>ICU Fälle</a:t>
+              <a:t>Aktive ICU Fälle</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -3684,7 +3710,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Modell!$O$3</c:f>
+              <c:f>'Daten und Berechnung'!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3709,7 +3735,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Modell!$H$4:$H$102</c:f>
+              <c:f>'Daten und Berechnung'!$A$3:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="99"/>
@@ -3937,7 +3963,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Modell!$O$4:$O$102</c:f>
+              <c:f>'Daten und Berechnung'!$H$3:$H$101</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="99"/>
@@ -3945,220 +3971,220 @@
                   <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.70199999999999996</c:v>
+                  <c:v>0.69839999999999991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9585999999999999</c:v>
+                  <c:v>0.95046399999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3166466666666665</c:v>
+                  <c:v>1.3024454399999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9327584444444441</c:v>
+                  <c:v>1.9103476224</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2483331629629628</c:v>
+                  <c:v>3.2139337175040001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.9800553908641971</c:v>
+                  <c:v>5.9253763688038399</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.4107202111687256</c:v>
+                  <c:v>7.3183613140516863</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.713696204129767</c:v>
+                  <c:v>7.5756268614896189</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.8265729973254423</c:v>
+                  <c:v>9.6426017870300349</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.06902056408126</c:v>
+                  <c:v>10.826897715548833</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.410053211945218</c:v>
+                  <c:v>13.103821806926881</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.983051438213714</c:v>
+                  <c:v>20.599668934649806</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27.213616390273259</c:v>
+                  <c:v>26.705682177263814</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>33.636495843930817</c:v>
+                  <c:v>32.967454890173258</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42.945279315799795</c:v>
+                  <c:v>42.07875669456633</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>53.25377000527314</c:v>
+                  <c:v>52.135606426783674</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>62.918644338430695</c:v>
+                  <c:v>61.490182169712327</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>71.241356193816344</c:v>
+                  <c:v>69.450574882923831</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>128.26664432068912</c:v>
+                  <c:v>126.07255188760688</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>164.48108950999949</c:v>
+                  <c:v>161.51964981210261</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>191.75838652633286</c:v>
+                  <c:v>187.81886381961849</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>218.47644030878845</c:v>
+                  <c:v>213.41610926683379</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>255.57389229849554</c:v>
+                  <c:v>249.25946489616041</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>270.47476255521229</c:v>
+                  <c:v>262.70908630031397</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>288.02453640652294</c:v>
+                  <c:v>294.50513796420626</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>308.55741043768643</c:v>
+                  <c:v>330.71136025576391</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>332.45318749815635</c:v>
+                  <c:v>371.91451180598773</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>360.14337821135564</c:v>
+                  <c:v>418.78038357790086</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>392.11812279303814</c:v>
+                  <c:v>472.06440496638248</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>428.93404332930476</c:v>
+                  <c:v>532.62367478730209</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>471.22315146089892</c:v>
+                  <c:v>601.43060852213739</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>519.70295320315961</c:v>
+                  <c:v>679.58841888770917</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>575.18791166787082</c:v>
+                  <c:v>768.34867595637911</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>638.60245004696912</c:v>
+                  <c:v>869.1312261237382</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>710.99570171207029</c:v>
+                  <c:v>983.54678673440162</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>793.55824206760565</c:v>
+                  <c:v>1113.4225757286451</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>887.64106831087565</c:v>
+                  <c:v>1260.831383940003</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>994.77712900075107</c:v>
+                  <c:v>1428.1245524242204</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1116.7057458866111</c:v>
+                  <c:v>1617.9693793038623</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1255.4003164453015</c:v>
+                  <c:v>1833.3915510580987</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1413.0997377479298</c:v>
+                  <c:v>2077.823273094074</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1592.3440514599495</c:v>
+                  <c:v>2355.157865075621</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1796.0148769084471</c:v>
+                  <c:v>2669.8116892984249</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2027.381275297432</c:v>
+                  <c:v>3026.7943970232009</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2290.1517745262936</c:v>
+                  <c:v>3431.7886099647308</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2588.5333820420838</c:v>
+                  <c:v>3891.2403041885927</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2927.2985242910986</c:v>
+                  <c:v>4412.461333875528</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3311.8609773968233</c:v>
+                  <c:v>5003.7457254825222</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3748.3619966845486</c:v>
+                  <c:v>5674.5015918304925</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4243.7680148719364</c:v>
+                  <c:v>6435.4007640637165</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4805.9814627291817</c:v>
+                  <c:v>7298.5485212067315</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5443.966474708096</c:v>
+                  <c:v>8277.6761166716606</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6167.8914787656304</c:v>
+                  <c:v>9388.3591636260389</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6989.2909381287618</c:v>
+                  <c:v>10648.265352384315</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>7921.2488173348693</c:v>
+                  <c:v>12077.435439475796</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>8978.6066903788123</c:v>
+                  <c:v>13698.601977186596</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>10178.199800699522</c:v>
+                  <c:v>15537.550852588942</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>11539.124827277876</c:v>
+                  <c:v>17623.531385903298</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>13083.043615363662</c:v>
+                  <c:v>19989.721510315227</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>14834.527702322017</c:v>
+                  <c:v>22673.755431371701</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>16821.449117885444</c:v>
+                  <c:v>25718.322157742612</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>19075.423674034508</c:v>
+                  <c:v>29171.844422255162</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>21632.313794512906</c:v>
+                  <c:v>33089.248790617748</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>24532.798880887025</c:v>
+                  <c:v>37532.839205478012</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>27823.022286145399</c:v>
+                  <c:v>42573.287858472162</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>31555.325185182151</c:v>
+                  <c:v>48290.759148880694</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>35789.079013496499</c:v>
+                  <c:v>54776.184604084803</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>40591.629713046626</c:v>
+                  <c:v>62132.709037880653</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>46039.368802351768</c:v>
+                  <c:v>70477.330946037095</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>52218.948304920246</c:v>
+                  <c:v>79942.763227587857</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>59228.658857971481</c:v>
+                  <c:v>90679.543824360706</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>67179.992918602424</c:v>
+                  <c:v>102858.42984588939</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4175,7 +4201,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Modell!$P$3</c:f>
+              <c:f>'Daten und Berechnung'!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4201,7 +4227,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Modell!$H$4:$H$102</c:f>
+              <c:f>'Daten und Berechnung'!$A$3:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="99"/>
@@ -4429,228 +4455,228 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Modell!$P$4:$P$102</c:f>
+              <c:f>'Daten und Berechnung'!$I$3:$I$101</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5600</c:v>
+                  <c:v>5599.9999999999991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4667,7 +4693,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Modell!$Q$3</c:f>
+              <c:f>'Daten und Berechnung'!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4717,7 +4743,7 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>Modell!$H$4:$H$102</c:f>
+              <c:f>'Daten und Berechnung'!$A$3:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="99"/>
@@ -4945,7 +4971,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Modell!$Q$4:$Q$102</c:f>
+              <c:f>'Daten und Berechnung'!$J$3:$J$101</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="99"/>
@@ -7609,15 +7635,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>300567</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>198966</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>829734</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>71966</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7647,15 +7673,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>850900</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>300566</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>855134</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7685,14 +7711,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1295400</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:colOff>194735</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:colOff>2133600</xdr:colOff>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7723,15 +7749,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1308099</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>198965</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>2142066</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7759,6 +7785,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8058,10 +8088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529FAB60-8088-E44B-9776-8F2514CCF83F}">
-  <dimension ref="A2:Q102"/>
+  <dimension ref="A2:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8070,3356 +8100,3421 @@
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="3" width="2.6640625" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="47.5" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="29.83203125" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" customWidth="1"/>
-    <col min="16" max="17" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="38.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
-      <c r="H2" s="14" t="s">
+      <c r="F2" s="14" t="s">
         <v>27</v>
       </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
       <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
     </row>
-    <row r="3" spans="1:17" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="G3" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
       </c>
       <c r="B4" s="7">
         <v>5.5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="1">
-        <v>43891</v>
-      </c>
-      <c r="I4" s="4">
-        <v>54</v>
-      </c>
-      <c r="J4" s="4">
-        <f>IF(ISNA(I4), (1 + $B$14)*J3, I4)</f>
-        <v>54</v>
-      </c>
-      <c r="K4" s="5">
-        <f>J4</f>
-        <v>54</v>
-      </c>
-      <c r="L4" s="5">
-        <f>$B$5*J4</f>
-        <v>5.4</v>
-      </c>
-      <c r="M4" s="5">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5">
-        <f>L4</f>
-        <v>5.4</v>
-      </c>
-      <c r="O4" s="5">
-        <f>N4*$B$15</f>
-        <v>0.54</v>
-      </c>
-      <c r="P4" s="5">
-        <f>$B$7</f>
-        <v>5600</v>
-      </c>
-      <c r="Q4" s="5">
-        <f>$B$8</f>
-        <v>33600</v>
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="10">
+        <f>2^(1/B4) - 1</f>
+        <v>0.13431252219546264</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="8">
         <v>0.1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>43892</v>
-      </c>
-      <c r="I5" s="4">
-        <v>18</v>
-      </c>
-      <c r="J5" s="4">
-        <f>IF(ISNA(I5), (1 + $B$14)*J4, I5)</f>
-        <v>18</v>
-      </c>
-      <c r="K5" s="5">
-        <f>K4+J5</f>
-        <v>72</v>
-      </c>
-      <c r="L5" s="5">
-        <f t="shared" ref="L5:L10" si="0">$B$5*J5</f>
-        <v>1.8</v>
-      </c>
-      <c r="M5" s="6">
-        <f>(1 / $B$9) * N4</f>
-        <v>0.18000000000000002</v>
-      </c>
-      <c r="N5" s="5">
-        <f>N4+L5-M5</f>
-        <v>7.0200000000000005</v>
-      </c>
-      <c r="O5" s="5">
-        <f>N5*$B$15</f>
-        <v>0.70199999999999996</v>
-      </c>
-      <c r="P5" s="5">
-        <f t="shared" ref="P5:P70" si="1">$B$7</f>
-        <v>5600</v>
-      </c>
-      <c r="Q5" s="5">
-        <f t="shared" ref="Q5:Q70" si="2">$B$8</f>
-        <v>33600</v>
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="10">
+        <f>B6/B5</f>
+        <v>9.9999999999999992E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="8">
         <v>0.01</v>
       </c>
       <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="12">
+        <f>1/B10</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="9">
+        <v>28000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="15">
+        <f>B7*(1-B8)</f>
+        <v>5599.9999999999991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="1">
-        <v>43893</v>
-      </c>
-      <c r="I6" s="4">
-        <v>28</v>
-      </c>
-      <c r="J6" s="4">
-        <f>IF(ISNA(I6), (1 + $B$14)*J5, I6)</f>
-        <v>28</v>
-      </c>
-      <c r="K6" s="5">
-        <f t="shared" ref="K6:K10" si="3">K5+J6</f>
-        <v>100</v>
-      </c>
-      <c r="L6" s="5">
-        <f t="shared" si="0"/>
-        <v>2.8000000000000003</v>
-      </c>
-      <c r="M6" s="6">
-        <f t="shared" ref="M6:M10" si="4">(1 / $B$9) * N5</f>
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="N6" s="5">
-        <f t="shared" ref="N6:N10" si="5">N5+L6-M6</f>
-        <v>9.5860000000000003</v>
-      </c>
-      <c r="O6" s="5">
-        <f>N6*$B$15</f>
-        <v>0.9585999999999999</v>
-      </c>
-      <c r="P6" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q6" s="5">
-        <f t="shared" si="2"/>
+      <c r="G8" s="15">
+        <f>G7+B9</f>
         <v>33600</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="9">
-        <f>28000*0.2</f>
-        <v>5600</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="1">
-        <v>43894</v>
-      </c>
-      <c r="I7" s="4">
-        <v>39</v>
-      </c>
-      <c r="J7" s="4">
-        <f>IF(ISNA(I7), (1 + $B$14)*J6, I7)</f>
-        <v>39</v>
-      </c>
-      <c r="K7" s="5">
-        <f t="shared" si="3"/>
-        <v>139</v>
-      </c>
-      <c r="L7" s="5">
-        <f t="shared" si="0"/>
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="M7" s="6">
-        <f t="shared" si="4"/>
-        <v>0.31953333333333334</v>
-      </c>
-      <c r="N7" s="5">
-        <f t="shared" si="5"/>
-        <v>13.166466666666667</v>
-      </c>
-      <c r="O7" s="5">
-        <f>N7*$B$15</f>
-        <v>1.3166466666666665</v>
-      </c>
-      <c r="P7" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q7" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="9">
+        <v>28000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="9">
-        <f>28000 + B7</f>
-        <v>33600</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="1">
-        <v>43895</v>
-      </c>
-      <c r="I8" s="4">
-        <v>66</v>
-      </c>
-      <c r="J8" s="4">
-        <f>IF(ISNA(I8), (1 + $B$14)*J7, I8)</f>
-        <v>66</v>
-      </c>
-      <c r="K8" s="5">
-        <f t="shared" si="3"/>
-        <v>205</v>
-      </c>
-      <c r="L8" s="5">
-        <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="M8" s="6">
-        <f t="shared" si="4"/>
-        <v>0.43888222222222223</v>
-      </c>
-      <c r="N8" s="5">
-        <f t="shared" si="5"/>
-        <v>19.327584444444444</v>
-      </c>
-      <c r="O8" s="5">
-        <f>N8*$B$15</f>
-        <v>1.9327584444444441</v>
-      </c>
-      <c r="P8" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q8" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="7">
+        <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="7">
-        <v>30</v>
-      </c>
-      <c r="H9" s="1">
-        <v>43896</v>
-      </c>
-      <c r="I9" s="4">
-        <v>138</v>
-      </c>
-      <c r="J9" s="4">
-        <f>IF(ISNA(I9), (1 + $B$14)*J8, I9)</f>
-        <v>138</v>
-      </c>
-      <c r="K9" s="5">
-        <f t="shared" si="3"/>
-        <v>343</v>
-      </c>
-      <c r="L9" s="5">
-        <f t="shared" si="0"/>
-        <v>13.8</v>
-      </c>
-      <c r="M9" s="6">
-        <f t="shared" si="4"/>
-        <v>0.64425281481481478</v>
-      </c>
-      <c r="N9" s="5">
-        <f t="shared" si="5"/>
-        <v>32.483331629629632</v>
-      </c>
-      <c r="O9" s="5">
-        <f>N9*$B$15</f>
-        <v>3.2483331629629628</v>
-      </c>
-      <c r="P9" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q9" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H10" s="1">
-        <v>43897</v>
-      </c>
-      <c r="I10" s="4">
-        <v>284</v>
-      </c>
-      <c r="J10" s="4">
-        <f>IF(ISNA(I10), (1 + $B$14)*J9, I10)</f>
-        <v>284</v>
-      </c>
-      <c r="K10" s="5">
-        <f t="shared" si="3"/>
-        <v>627</v>
-      </c>
-      <c r="L10" s="5">
-        <f t="shared" si="0"/>
-        <v>28.400000000000002</v>
-      </c>
-      <c r="M10" s="6">
-        <f t="shared" si="4"/>
-        <v>1.0827777209876543</v>
-      </c>
-      <c r="N10" s="5">
-        <f t="shared" si="5"/>
-        <v>59.80055390864198</v>
-      </c>
-      <c r="O10" s="5">
-        <f>N10*$B$15</f>
-        <v>5.9800553908641971</v>
-      </c>
-      <c r="P10" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q10" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H11" s="1">
-        <v>43898</v>
-      </c>
-      <c r="I11" s="4">
-        <v>163</v>
-      </c>
-      <c r="J11" s="4">
-        <f>IF(ISNA(I11), (1 + $B$14)*J10, I11)</f>
-        <v>163</v>
-      </c>
-      <c r="K11" s="5">
-        <f>K10+J11</f>
-        <v>790</v>
-      </c>
-      <c r="L11" s="5">
-        <f>$B$5*J11</f>
-        <v>16.3</v>
-      </c>
-      <c r="M11" s="6">
-        <f>(1 / $B$9) * N10</f>
-        <v>1.9933517969547327</v>
-      </c>
-      <c r="N11" s="5">
-        <f>N10+L11-M11</f>
-        <v>74.107202111687258</v>
-      </c>
-      <c r="O11" s="5">
-        <f>N11*$B$15</f>
-        <v>7.4107202111687256</v>
-      </c>
-      <c r="P11" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q11" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H12" s="1">
-        <v>43899</v>
-      </c>
-      <c r="I12" s="4">
-        <v>55</v>
-      </c>
-      <c r="J12" s="4">
-        <f>IF(ISNA(I12), (1 + $B$14)*J11, I12)</f>
-        <v>55</v>
-      </c>
-      <c r="K12" s="5">
-        <f>K11+J12</f>
-        <v>845</v>
-      </c>
-      <c r="L12" s="5">
-        <f>$B$5*J12</f>
-        <v>5.5</v>
-      </c>
-      <c r="M12" s="6">
-        <f>(1 / $B$9) * N11</f>
-        <v>2.470240070389575</v>
-      </c>
-      <c r="N12" s="5">
-        <f>N11+L12-M12</f>
-        <v>77.136962041297679</v>
-      </c>
-      <c r="O12" s="5">
-        <f>N12*$B$15</f>
-        <v>7.713696204129767</v>
-      </c>
-      <c r="P12" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q12" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="H13" s="1">
-        <v>43900</v>
-      </c>
-      <c r="I13" s="4">
-        <v>237</v>
-      </c>
-      <c r="J13" s="4">
-        <f>IF(ISNA(I13), (1 + $B$14)*J12, I13)</f>
-        <v>237</v>
-      </c>
-      <c r="K13" s="5">
-        <f>K12+J13</f>
-        <v>1082</v>
-      </c>
-      <c r="L13" s="5">
-        <f>$B$5*J13</f>
-        <v>23.700000000000003</v>
-      </c>
-      <c r="M13" s="6">
-        <f>(1 / $B$9) * N12</f>
-        <v>2.5712320680432561</v>
-      </c>
-      <c r="N13" s="5">
-        <f>N12+L13-M13</f>
-        <v>98.265729973254423</v>
-      </c>
-      <c r="O13" s="5">
-        <f>N13*$B$15</f>
-        <v>9.8265729973254423</v>
-      </c>
-      <c r="P13" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q13" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="10">
-        <f>2^(1/B4) - 1</f>
-        <v>0.13431252219546264</v>
-      </c>
-      <c r="H14" s="1">
-        <v>43901</v>
-      </c>
-      <c r="I14" s="4">
-        <v>157</v>
-      </c>
-      <c r="J14" s="4">
-        <f>IF(ISNA(I14), (1 + $B$14)*J13, I14)</f>
-        <v>157</v>
-      </c>
-      <c r="K14" s="5">
-        <f>K13+J14</f>
-        <v>1239</v>
-      </c>
-      <c r="L14" s="5">
-        <f>$B$5*J14</f>
-        <v>15.700000000000001</v>
-      </c>
-      <c r="M14" s="6">
-        <f>(1 / $B$9) * N13</f>
-        <v>3.275524332441814</v>
-      </c>
-      <c r="N14" s="5">
-        <f>N13+L14-M14</f>
-        <v>110.69020564081261</v>
-      </c>
-      <c r="O14" s="5">
-        <f>N14*$B$15</f>
-        <v>11.06902056408126</v>
-      </c>
-      <c r="P14" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q14" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="10">
-        <f>B6/B5</f>
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="H15" s="1">
-        <v>43902</v>
-      </c>
-      <c r="I15" s="4">
-        <v>271</v>
-      </c>
-      <c r="J15" s="4">
-        <f>IF(ISNA(I15), (1 + $B$14)*J14, I15)</f>
-        <v>271</v>
-      </c>
-      <c r="K15" s="5">
-        <f>K14+J15</f>
-        <v>1510</v>
-      </c>
-      <c r="L15" s="5">
-        <f>$B$5*J15</f>
-        <v>27.1</v>
-      </c>
-      <c r="M15" s="6">
-        <f>(1 / $B$9) * N14</f>
-        <v>3.6896735213604201</v>
-      </c>
-      <c r="N15" s="5">
-        <f>N14+L15-M15</f>
-        <v>134.1005321194522</v>
-      </c>
-      <c r="O15" s="5">
-        <f>N15*$B$15</f>
-        <v>13.410053211945218</v>
-      </c>
-      <c r="P15" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q15" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="12">
-        <f>1/B9</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="H16" s="1">
-        <v>43903</v>
-      </c>
-      <c r="I16" s="4">
-        <v>802</v>
-      </c>
-      <c r="J16" s="4">
-        <f>IF(ISNA(I16), (1 + $B$14)*J15, I16)</f>
-        <v>802</v>
-      </c>
-      <c r="K16" s="5">
-        <f>K15+J16</f>
-        <v>2312</v>
-      </c>
-      <c r="L16" s="5">
-        <f>$B$5*J16</f>
-        <v>80.2</v>
-      </c>
-      <c r="M16" s="6">
-        <f>(1 / $B$9) * N15</f>
-        <v>4.4700177373150733</v>
-      </c>
-      <c r="N16" s="5">
-        <f>N15+L16-M16</f>
-        <v>209.83051438213715</v>
-      </c>
-      <c r="O16" s="5">
-        <f>N16*$B$15</f>
-        <v>20.983051438213714</v>
-      </c>
-      <c r="P16" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q16" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="17" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H17" s="1">
-        <v>43904</v>
-      </c>
-      <c r="I17" s="4">
-        <v>693</v>
-      </c>
-      <c r="J17" s="4">
-        <f>IF(ISNA(I17), (1 + $B$14)*J16, I17)</f>
-        <v>693</v>
-      </c>
-      <c r="K17" s="5">
-        <f>K16+J17</f>
-        <v>3005</v>
-      </c>
-      <c r="L17" s="5">
-        <f>$B$5*J17</f>
-        <v>69.3</v>
-      </c>
-      <c r="M17" s="6">
-        <f>(1 / $B$9) * N16</f>
-        <v>6.9943504794045719</v>
-      </c>
-      <c r="N17" s="5">
-        <f>N16+L17-M17</f>
-        <v>272.13616390273262</v>
-      </c>
-      <c r="O17" s="5">
-        <f>N17*$B$15</f>
-        <v>27.213616390273259</v>
-      </c>
-      <c r="P17" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q17" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="18" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H18" s="1">
-        <v>43905</v>
-      </c>
-      <c r="I18" s="4">
-        <v>733</v>
-      </c>
-      <c r="J18" s="4">
-        <f>IF(ISNA(I18), (1 + $B$14)*J17, I18)</f>
-        <v>733</v>
-      </c>
-      <c r="K18" s="5">
-        <f>K17+J18</f>
-        <v>3738</v>
-      </c>
-      <c r="L18" s="5">
-        <f>$B$5*J18</f>
-        <v>73.3</v>
-      </c>
-      <c r="M18" s="6">
-        <f>(1 / $B$9) * N17</f>
-        <v>9.0712054634244197</v>
-      </c>
-      <c r="N18" s="5">
-        <f>N17+L18-M18</f>
-        <v>336.36495843930823</v>
-      </c>
-      <c r="O18" s="5">
-        <f>N18*$B$15</f>
-        <v>33.636495843930817</v>
-      </c>
-      <c r="P18" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q18" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="19" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H19" s="1">
-        <v>43906</v>
-      </c>
-      <c r="I19" s="4">
-        <v>1043</v>
-      </c>
-      <c r="J19" s="4">
-        <f>IF(ISNA(I19), (1 + $B$14)*J18, I19)</f>
-        <v>1043</v>
-      </c>
-      <c r="K19" s="5">
-        <f>K18+J19</f>
-        <v>4781</v>
-      </c>
-      <c r="L19" s="5">
-        <f>$B$5*J19</f>
-        <v>104.30000000000001</v>
-      </c>
-      <c r="M19" s="6">
-        <f>(1 / $B$9) * N18</f>
-        <v>11.212165281310273</v>
-      </c>
-      <c r="N19" s="5">
-        <f>N18+L19-M19</f>
-        <v>429.45279315799797</v>
-      </c>
-      <c r="O19" s="5">
-        <f>N19*$B$15</f>
-        <v>42.945279315799795</v>
-      </c>
-      <c r="P19" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q19" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="20" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H20" s="1">
-        <v>43907</v>
-      </c>
-      <c r="I20" s="4">
-        <v>1174</v>
-      </c>
-      <c r="J20" s="4">
-        <f>IF(ISNA(I20), (1 + $B$14)*J19, I20)</f>
-        <v>1174</v>
-      </c>
-      <c r="K20" s="5">
-        <f>K19+J20</f>
-        <v>5955</v>
-      </c>
-      <c r="L20" s="5">
-        <f>$B$5*J20</f>
-        <v>117.4</v>
-      </c>
-      <c r="M20" s="6">
-        <f>(1 / $B$9) * N19</f>
-        <v>14.315093105266598</v>
-      </c>
-      <c r="N20" s="5">
-        <f>N19+L20-M20</f>
-        <v>532.53770005273145</v>
-      </c>
-      <c r="O20" s="5">
-        <f>N20*$B$15</f>
-        <v>53.25377000527314</v>
-      </c>
-      <c r="P20" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q20" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="21" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H21" s="1">
-        <v>43908</v>
-      </c>
-      <c r="I21" s="4">
-        <v>1144</v>
-      </c>
-      <c r="J21" s="4">
-        <f>IF(ISNA(I21), (1 + $B$14)*J20, I21)</f>
-        <v>1144</v>
-      </c>
-      <c r="K21" s="5">
-        <f>K20+J21</f>
-        <v>7099</v>
-      </c>
-      <c r="L21" s="5">
-        <f>$B$5*J21</f>
-        <v>114.4</v>
-      </c>
-      <c r="M21" s="6">
-        <f>(1 / $B$9) * N20</f>
-        <v>17.751256668424382</v>
-      </c>
-      <c r="N21" s="5">
-        <f>N20+L21-M21</f>
-        <v>629.18644338430704</v>
-      </c>
-      <c r="O21" s="5">
-        <f>N21*$B$15</f>
-        <v>62.918644338430695</v>
-      </c>
-      <c r="P21" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q21" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="22" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H22" s="1">
-        <v>43909</v>
-      </c>
-      <c r="I22" s="4">
-        <v>1042</v>
-      </c>
-      <c r="J22" s="4">
-        <f>IF(ISNA(I22), (1 + $B$14)*J21, I22)</f>
-        <v>1042</v>
-      </c>
-      <c r="K22" s="5">
-        <f>K21+J22</f>
-        <v>8141</v>
-      </c>
-      <c r="L22" s="5">
-        <f>$B$5*J22</f>
-        <v>104.2</v>
-      </c>
-      <c r="M22" s="6">
-        <f>(1 / $B$9) * N21</f>
-        <v>20.972881446143568</v>
-      </c>
-      <c r="N22" s="5">
-        <f>N21+L22-M22</f>
-        <v>712.41356193816353</v>
-      </c>
-      <c r="O22" s="5">
-        <f>N22*$B$15</f>
-        <v>71.241356193816344</v>
-      </c>
-      <c r="P22" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q22" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="23" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H23" s="1">
-        <v>43910</v>
-      </c>
-      <c r="I23" s="4">
-        <v>5940</v>
-      </c>
-      <c r="J23" s="4">
-        <f>IF(ISNA(I23), (1 + $B$14)*J22, I23)</f>
-        <v>5940</v>
-      </c>
-      <c r="K23" s="5">
-        <f>K22+J23</f>
-        <v>14081</v>
-      </c>
-      <c r="L23" s="5">
-        <f>$B$5*J23</f>
-        <v>594</v>
-      </c>
-      <c r="M23" s="6">
-        <f>(1 / $B$9) * N22</f>
-        <v>23.747118731272117</v>
-      </c>
-      <c r="N23" s="5">
-        <f>N22+L23-M23</f>
-        <v>1282.6664432068915</v>
-      </c>
-      <c r="O23" s="5">
-        <f>N23*$B$15</f>
-        <v>128.26664432068912</v>
-      </c>
-      <c r="P23" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q23" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="24" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H24" s="1">
-        <v>43911</v>
-      </c>
-      <c r="I24" s="4">
-        <v>4049</v>
-      </c>
-      <c r="J24" s="4">
-        <f>IF(ISNA(I24), (1 + $B$14)*J23, I24)</f>
-        <v>4049</v>
-      </c>
-      <c r="K24" s="5">
-        <f>K23+J24</f>
-        <v>18130</v>
-      </c>
-      <c r="L24" s="5">
-        <f>$B$5*J24</f>
-        <v>404.90000000000003</v>
-      </c>
-      <c r="M24" s="6">
-        <f>(1 / $B$9) * N23</f>
-        <v>42.755548106896384</v>
-      </c>
-      <c r="N24" s="5">
-        <f>N23+L24-M24</f>
-        <v>1644.8108950999952</v>
-      </c>
-      <c r="O24" s="5">
-        <f>N24*$B$15</f>
-        <v>164.48108950999949</v>
-      </c>
-      <c r="P24" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q24" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="25" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H25" s="1">
-        <v>43912</v>
-      </c>
-      <c r="I25" s="4">
-        <v>3276</v>
-      </c>
-      <c r="J25" s="4">
-        <f>IF(ISNA(I25), (1 + $B$14)*J24, I25)</f>
-        <v>3276</v>
-      </c>
-      <c r="K25" s="5">
-        <f>K24+J25</f>
-        <v>21406</v>
-      </c>
-      <c r="L25" s="5">
-        <f>$B$5*J25</f>
-        <v>327.60000000000002</v>
-      </c>
-      <c r="M25" s="6">
-        <f>(1 / $B$9) * N24</f>
-        <v>54.827029836666505</v>
-      </c>
-      <c r="N25" s="5">
-        <f>N24+L25-M25</f>
-        <v>1917.5838652633288</v>
-      </c>
-      <c r="O25" s="5">
-        <f>N25*$B$15</f>
-        <v>191.75838652633286</v>
-      </c>
-      <c r="P25" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q25" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="26" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H26" s="1">
-        <v>43913</v>
-      </c>
-      <c r="I26" s="4">
-        <v>3311</v>
-      </c>
-      <c r="J26" s="4">
-        <f>IF(ISNA(I26), (1 + $B$14)*J25, I26)</f>
-        <v>3311</v>
-      </c>
-      <c r="K26" s="5">
-        <f>K25+J26</f>
-        <v>24717</v>
-      </c>
-      <c r="L26" s="5">
-        <f>$B$5*J26</f>
-        <v>331.1</v>
-      </c>
-      <c r="M26" s="6">
-        <f>(1 / $B$9) * N25</f>
-        <v>63.919462175444295</v>
-      </c>
-      <c r="N26" s="5">
-        <f>N25+L26-M26</f>
-        <v>2184.7644030878846</v>
-      </c>
-      <c r="O26" s="5">
-        <f>N26*$B$15</f>
-        <v>218.47644030878845</v>
-      </c>
-      <c r="P26" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q26" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="27" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H27" s="1">
-        <v>43914</v>
-      </c>
-      <c r="I27" s="4">
-        <v>4438</v>
-      </c>
-      <c r="J27" s="4">
-        <f>IF(ISNA(I27), (1 + $B$14)*J26, I27)</f>
-        <v>4438</v>
-      </c>
-      <c r="K27" s="5">
-        <f>K26+J27</f>
-        <v>29155</v>
-      </c>
-      <c r="L27" s="5">
-        <f>$B$5*J27</f>
-        <v>443.8</v>
-      </c>
-      <c r="M27" s="6">
-        <f>(1 / $B$9) * N26</f>
-        <v>72.82548010292949</v>
-      </c>
-      <c r="N27" s="5">
-        <f>N26+L27-M27</f>
-        <v>2555.7389229849555</v>
-      </c>
-      <c r="O27" s="5">
-        <f>N27*$B$15</f>
-        <v>255.57389229849554</v>
-      </c>
-      <c r="P27" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q27" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="28" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H28" s="1">
-        <v>43915</v>
-      </c>
-      <c r="I28" s="4">
-        <v>2342</v>
-      </c>
-      <c r="J28" s="4">
-        <f>IF(ISNA(I28), (1 + $B$14)*J27, I28)</f>
-        <v>2342</v>
-      </c>
-      <c r="K28" s="5">
-        <f>K27+J28</f>
-        <v>31497</v>
-      </c>
-      <c r="L28" s="5">
-        <f>$B$5*J28</f>
-        <v>234.20000000000002</v>
-      </c>
-      <c r="M28" s="6">
-        <f>(1 / $B$9) * N27</f>
-        <v>85.191297432831846</v>
-      </c>
-      <c r="N28" s="5">
-        <f>N27+L28-M28</f>
-        <v>2704.7476255521233</v>
-      </c>
-      <c r="O28" s="5">
-        <f>N28*$B$15</f>
-        <v>270.47476255521229</v>
-      </c>
-      <c r="P28" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q28" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="29" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H29" s="1">
-        <v>43916</v>
-      </c>
-      <c r="I29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J29" s="4">
-        <f>IF(ISNA(I29), (1 + $B$14)*J28, I29)</f>
-        <v>2656.5599269817735</v>
-      </c>
-      <c r="K29" s="5">
-        <f>K28+J29</f>
-        <v>34153.559926981776</v>
-      </c>
-      <c r="L29" s="5">
-        <f>$B$5*J29</f>
-        <v>265.65599269817739</v>
-      </c>
-      <c r="M29" s="6">
-        <f>(1 / $B$9) * N28</f>
-        <v>90.158254185070774</v>
-      </c>
-      <c r="N29" s="5">
-        <f>N28+L29-M29</f>
-        <v>2880.2453640652298</v>
-      </c>
-      <c r="O29" s="5">
-        <f>N29*$B$15</f>
-        <v>288.02453640652294</v>
-      </c>
-      <c r="P29" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q29" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="30" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H30" s="1">
-        <v>43917</v>
-      </c>
-      <c r="I30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J30" s="4">
-        <f t="shared" ref="J30:J63" si="6">J29*(1 + $B$14)</f>
-        <v>3013.3691911380897</v>
-      </c>
-      <c r="K30" s="5">
-        <f>K29+J30</f>
-        <v>37166.929118119864</v>
-      </c>
-      <c r="L30" s="5">
-        <f>$B$5*J30</f>
-        <v>301.33691911380896</v>
-      </c>
-      <c r="M30" s="6">
-        <f>(1 / $B$9) * N29</f>
-        <v>96.008178802174328</v>
-      </c>
-      <c r="N30" s="5">
-        <f>N29+L30-M30</f>
-        <v>3085.5741043768644</v>
-      </c>
-      <c r="O30" s="5">
-        <f>N30*$B$15</f>
-        <v>308.55741043768643</v>
-      </c>
-      <c r="P30" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q30" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="31" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H31" s="1">
-        <v>43918</v>
-      </c>
-      <c r="I31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J31" s="4">
-        <f t="shared" si="6"/>
-        <v>3418.1024075059477</v>
-      </c>
-      <c r="K31" s="5">
-        <f>K30+J31</f>
-        <v>40585.031525625811</v>
-      </c>
-      <c r="L31" s="5">
-        <f>$B$5*J31</f>
-        <v>341.8102407505948</v>
-      </c>
-      <c r="M31" s="6">
-        <f>(1 / $B$9) * N30</f>
-        <v>102.85247014589548</v>
-      </c>
-      <c r="N31" s="5">
-        <f>N30+L31-M31</f>
-        <v>3324.5318749815638</v>
-      </c>
-      <c r="O31" s="5">
-        <f>N31*$B$15</f>
-        <v>332.45318749815635</v>
-      </c>
-      <c r="P31" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q31" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="32" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H32" s="1">
-        <v>43919</v>
-      </c>
-      <c r="I32" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J32" s="4">
-        <f t="shared" si="6"/>
-        <v>3877.1963629804545</v>
-      </c>
-      <c r="K32" s="5">
-        <f>K31+J32</f>
-        <v>44462.227888606263</v>
-      </c>
-      <c r="L32" s="5">
-        <f>$B$5*J32</f>
-        <v>387.71963629804549</v>
-      </c>
-      <c r="M32" s="6">
-        <f>(1 / $B$9) * N31</f>
-        <v>110.81772916605212</v>
-      </c>
-      <c r="N32" s="5">
-        <f>N31+L32-M32</f>
-        <v>3601.4337821135568</v>
-      </c>
-      <c r="O32" s="5">
-        <f>N32*$B$15</f>
-        <v>360.14337821135564</v>
-      </c>
-      <c r="P32" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q32" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="33" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H33" s="1">
-        <v>43920</v>
-      </c>
-      <c r="I33" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J33" s="4">
-        <f t="shared" si="6"/>
-        <v>4397.9523855394336</v>
-      </c>
-      <c r="K33" s="5">
-        <f>K32+J33</f>
-        <v>48860.1802741457</v>
-      </c>
-      <c r="L33" s="5">
-        <f>$B$5*J33</f>
-        <v>439.79523855394336</v>
-      </c>
-      <c r="M33" s="6">
-        <f>(1 / $B$9) * N32</f>
-        <v>120.04779273711856</v>
-      </c>
-      <c r="N33" s="5">
-        <f>N32+L33-M33</f>
-        <v>3921.1812279303817</v>
-      </c>
-      <c r="O33" s="5">
-        <f>N33*$B$15</f>
-        <v>392.11812279303814</v>
-      </c>
-      <c r="P33" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q33" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="34" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H34" s="1">
-        <v>43921</v>
-      </c>
-      <c r="I34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J34" s="4">
-        <f t="shared" si="6"/>
-        <v>4988.6524629367868</v>
-      </c>
-      <c r="K34" s="5">
-        <f>K33+J34</f>
-        <v>53848.832737082485</v>
-      </c>
-      <c r="L34" s="5">
-        <f>$B$5*J34</f>
-        <v>498.86524629367869</v>
-      </c>
-      <c r="M34" s="6">
-        <f>(1 / $B$9) * N33</f>
-        <v>130.70604093101272</v>
-      </c>
-      <c r="N34" s="5">
-        <f>N33+L34-M34</f>
-        <v>4289.3404332930477</v>
-      </c>
-      <c r="O34" s="5">
-        <f>N34*$B$15</f>
-        <v>428.93404332930476</v>
-      </c>
-      <c r="P34" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q34" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="35" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H35" s="1">
-        <v>43922</v>
-      </c>
-      <c r="I35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J35" s="4">
-        <f t="shared" si="6"/>
-        <v>5658.6909575904338</v>
-      </c>
-      <c r="K35" s="5">
-        <f>K34+J35</f>
-        <v>59507.52369467292</v>
-      </c>
-      <c r="L35" s="5">
-        <f>$B$5*J35</f>
-        <v>565.86909575904338</v>
-      </c>
-      <c r="M35" s="6">
-        <f>(1 / $B$9) * N34</f>
-        <v>142.97801444310159</v>
-      </c>
-      <c r="N35" s="5">
-        <f>N34+L35-M35</f>
-        <v>4712.2315146089895</v>
-      </c>
-      <c r="O35" s="5">
-        <f>N35*$B$15</f>
-        <v>471.22315146089892</v>
-      </c>
-      <c r="P35" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q35" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="36" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H36" s="1">
-        <v>43923</v>
-      </c>
-      <c r="I36" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J36" s="4">
-        <f t="shared" si="6"/>
-        <v>6418.7240124290629</v>
-      </c>
-      <c r="K36" s="5">
-        <f>K35+J36</f>
-        <v>65926.247707101982</v>
-      </c>
-      <c r="L36" s="5">
-        <f>$B$5*J36</f>
-        <v>641.87240124290634</v>
-      </c>
-      <c r="M36" s="6">
-        <f>(1 / $B$9) * N35</f>
-        <v>157.07438382029966</v>
-      </c>
-      <c r="N36" s="5">
-        <f>N35+L36-M36</f>
-        <v>5197.0295320315963</v>
-      </c>
-      <c r="O36" s="5">
-        <f>N36*$B$15</f>
-        <v>519.70295320315961</v>
-      </c>
-      <c r="P36" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q36" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="37" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H37" s="1">
-        <v>43924</v>
-      </c>
-      <c r="I37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J37" s="4">
-        <f t="shared" si="6"/>
-        <v>7280.8390238149905</v>
-      </c>
-      <c r="K37" s="5">
-        <f>K36+J37</f>
-        <v>73207.08673091697</v>
-      </c>
-      <c r="L37" s="5">
-        <f>$B$5*J37</f>
-        <v>728.08390238149912</v>
-      </c>
-      <c r="M37" s="6">
-        <f>(1 / $B$9) * N36</f>
-        <v>173.23431773438654</v>
-      </c>
-      <c r="N37" s="5">
-        <f>N36+L37-M37</f>
-        <v>5751.8791166787087</v>
-      </c>
-      <c r="O37" s="5">
-        <f>N37*$B$15</f>
-        <v>575.18791166787082</v>
-      </c>
-      <c r="P37" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q37" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="38" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H38" s="1">
-        <v>43925</v>
-      </c>
-      <c r="I38" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J38" s="4">
-        <f t="shared" si="6"/>
-        <v>8258.746876802732</v>
-      </c>
-      <c r="K38" s="5">
-        <f>K37+J38</f>
-        <v>81465.833607719702</v>
-      </c>
-      <c r="L38" s="5">
-        <f>$B$5*J38</f>
-        <v>825.87468768027327</v>
-      </c>
-      <c r="M38" s="6">
-        <f>(1 / $B$9) * N37</f>
-        <v>191.72930388929029</v>
-      </c>
-      <c r="N38" s="5">
-        <f>N37+L38-M38</f>
-        <v>6386.0245004696917</v>
-      </c>
-      <c r="O38" s="5">
-        <f>N38*$B$15</f>
-        <v>638.60245004696912</v>
-      </c>
-      <c r="P38" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q38" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="39" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H39" s="1">
-        <v>43926</v>
-      </c>
-      <c r="I39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J39" s="4">
-        <f t="shared" si="6"/>
-        <v>9368.0000000000073</v>
-      </c>
-      <c r="K39" s="5">
-        <f>K38+J39</f>
-        <v>90833.833607719716</v>
-      </c>
-      <c r="L39" s="5">
-        <f>$B$5*J39</f>
-        <v>936.80000000000075</v>
-      </c>
-      <c r="M39" s="6">
-        <f>(1 / $B$9) * N38</f>
-        <v>212.86748334898971</v>
-      </c>
-      <c r="N39" s="5">
-        <f>N38+L39-M39</f>
-        <v>7109.9570171207033</v>
-      </c>
-      <c r="O39" s="5">
-        <f>N39*$B$15</f>
-        <v>710.99570171207029</v>
-      </c>
-      <c r="P39" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q39" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="40" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H40" s="1">
-        <v>43927</v>
-      </c>
-      <c r="I40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J40" s="4">
-        <f t="shared" si="6"/>
-        <v>10626.239707927101</v>
-      </c>
-      <c r="K40" s="5">
-        <f>K39+J40</f>
-        <v>101460.07331564682</v>
-      </c>
-      <c r="L40" s="5">
-        <f>$B$5*J40</f>
-        <v>1062.6239707927102</v>
-      </c>
-      <c r="M40" s="6">
-        <f>(1 / $B$9) * N39</f>
-        <v>236.99856723735678</v>
-      </c>
-      <c r="N40" s="5">
-        <f>N39+L40-M40</f>
-        <v>7935.5824206760572</v>
-      </c>
-      <c r="O40" s="5">
-        <f>N40*$B$15</f>
-        <v>793.55824206760565</v>
-      </c>
-      <c r="P40" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q40" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="41" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H41" s="1">
-        <v>43928</v>
-      </c>
-      <c r="I41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J41" s="4">
-        <f t="shared" si="6"/>
-        <v>12053.476764552366</v>
-      </c>
-      <c r="K41" s="5">
-        <f>K40+J41</f>
-        <v>113513.55008019919</v>
-      </c>
-      <c r="L41" s="5">
-        <f>$B$5*J41</f>
-        <v>1205.3476764552368</v>
-      </c>
-      <c r="M41" s="6">
-        <f>(1 / $B$9) * N40</f>
-        <v>264.51941402253522</v>
-      </c>
-      <c r="N41" s="5">
-        <f>N40+L41-M41</f>
-        <v>8876.4106831087574</v>
-      </c>
-      <c r="O41" s="5">
-        <f>N41*$B$15</f>
-        <v>887.64106831087565</v>
-      </c>
-      <c r="P41" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q41" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="42" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H42" s="1">
-        <v>43929</v>
-      </c>
-      <c r="I42" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J42" s="4">
-        <f t="shared" si="6"/>
-        <v>13672.4096300238</v>
-      </c>
-      <c r="K42" s="5">
-        <f>K41+J42</f>
-        <v>127185.95971022299</v>
-      </c>
-      <c r="L42" s="5">
-        <f>$B$5*J42</f>
-        <v>1367.2409630023801</v>
-      </c>
-      <c r="M42" s="6">
-        <f>(1 / $B$9) * N41</f>
-        <v>295.88035610362522</v>
-      </c>
-      <c r="N42" s="5">
-        <f>N41+L42-M42</f>
-        <v>9947.7712900075112</v>
-      </c>
-      <c r="O42" s="5">
-        <f>N42*$B$15</f>
-        <v>994.77712900075107</v>
-      </c>
-      <c r="P42" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q42" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="43" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H43" s="1">
-        <v>43930</v>
-      </c>
-      <c r="I43" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J43" s="4">
-        <f t="shared" si="6"/>
-        <v>15508.785451921829</v>
-      </c>
-      <c r="K43" s="5">
-        <f>K42+J43</f>
-        <v>142694.74516214483</v>
-      </c>
-      <c r="L43" s="5">
-        <f>$B$5*J43</f>
-        <v>1550.8785451921831</v>
-      </c>
-      <c r="M43" s="6">
-        <f>(1 / $B$9) * N42</f>
-        <v>331.59237633358373</v>
-      </c>
-      <c r="N43" s="5">
-        <f>N42+L43-M43</f>
-        <v>11167.057458866111</v>
-      </c>
-      <c r="O43" s="5">
-        <f>N43*$B$15</f>
-        <v>1116.7057458866111</v>
-      </c>
-      <c r="P43" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q43" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="44" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H44" s="1">
-        <v>43931</v>
-      </c>
-      <c r="I44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J44" s="4">
-        <f t="shared" si="6"/>
-        <v>17591.809542157749</v>
-      </c>
-      <c r="K44" s="5">
-        <f>K43+J44</f>
-        <v>160286.55470430257</v>
-      </c>
-      <c r="L44" s="5">
-        <f>$B$5*J44</f>
-        <v>1759.180954215775</v>
-      </c>
-      <c r="M44" s="6">
-        <f>(1 / $B$9) * N43</f>
-        <v>372.23524862887035</v>
-      </c>
-      <c r="N44" s="5">
-        <f>N43+L44-M44</f>
-        <v>12554.003164453015</v>
-      </c>
-      <c r="O44" s="5">
-        <f>N44*$B$15</f>
-        <v>1255.4003164453015</v>
-      </c>
-      <c r="P44" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q44" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="45" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H45" s="1">
-        <v>43932</v>
-      </c>
-      <c r="I45" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J45" s="4">
-        <f t="shared" si="6"/>
-        <v>19954.609851747162</v>
-      </c>
-      <c r="K45" s="5">
-        <f>K44+J45</f>
-        <v>180241.16455604974</v>
-      </c>
-      <c r="L45" s="5">
-        <f>$B$5*J45</f>
-        <v>1995.4609851747164</v>
-      </c>
-      <c r="M45" s="6">
-        <f>(1 / $B$9) * N44</f>
-        <v>418.46677214843385</v>
-      </c>
-      <c r="N45" s="5">
-        <f>N44+L45-M45</f>
-        <v>14130.9973774793</v>
-      </c>
-      <c r="O45" s="5">
-        <f>N45*$B$15</f>
-        <v>1413.0997377479298</v>
-      </c>
-      <c r="P45" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q45" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="46" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H46" s="1">
-        <v>43933</v>
-      </c>
-      <c r="I46" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J46" s="4">
-        <f t="shared" si="6"/>
-        <v>22634.76383036175</v>
-      </c>
-      <c r="K46" s="5">
-        <f>K45+J46</f>
-        <v>202875.92838641148</v>
-      </c>
-      <c r="L46" s="5">
-        <f>$B$5*J46</f>
-        <v>2263.4763830361749</v>
-      </c>
-      <c r="M46" s="6">
-        <f>(1 / $B$9) * N45</f>
-        <v>471.03324591597664</v>
-      </c>
-      <c r="N46" s="5">
-        <f>N45+L46-M46</f>
-        <v>15923.440514599497</v>
-      </c>
-      <c r="O46" s="5">
-        <f>N46*$B$15</f>
-        <v>1592.3440514599495</v>
-      </c>
-      <c r="P46" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q46" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="47" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H47" s="1">
-        <v>43934</v>
-      </c>
-      <c r="I47" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J47" s="4">
-        <f t="shared" si="6"/>
-        <v>25674.896049716266</v>
-      </c>
-      <c r="K47" s="5">
-        <f>K46+J47</f>
-        <v>228550.82443612776</v>
-      </c>
-      <c r="L47" s="5">
-        <f>$B$5*J47</f>
-        <v>2567.4896049716267</v>
-      </c>
-      <c r="M47" s="6">
-        <f>(1 / $B$9) * N46</f>
-        <v>530.7813504866499</v>
-      </c>
-      <c r="N47" s="5">
-        <f>N46+L47-M47</f>
-        <v>17960.148769084473</v>
-      </c>
-      <c r="O47" s="5">
-        <f>N47*$B$15</f>
-        <v>1796.0148769084471</v>
-      </c>
-      <c r="P47" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q47" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="48" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H48" s="1">
-        <v>43935</v>
-      </c>
-      <c r="I48" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J48" s="4">
-        <f t="shared" si="6"/>
-        <v>29123.356095259976</v>
-      </c>
-      <c r="K48" s="5">
-        <f>K47+J48</f>
-        <v>257674.18053138774</v>
-      </c>
-      <c r="L48" s="5">
-        <f>$B$5*J48</f>
-        <v>2912.3356095259978</v>
-      </c>
-      <c r="M48" s="6">
-        <f>(1 / $B$9) * N47</f>
-        <v>598.67162563614909</v>
-      </c>
-      <c r="N48" s="5">
-        <f>N47+L48-M48</f>
-        <v>20273.812752974321</v>
-      </c>
-      <c r="O48" s="5">
-        <f>N48*$B$15</f>
-        <v>2027.381275297432</v>
-      </c>
-      <c r="P48" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q48" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="49" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H49" s="1">
-        <v>43936</v>
-      </c>
-      <c r="I49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J49" s="4">
-        <f t="shared" si="6"/>
-        <v>33034.987507210943</v>
-      </c>
-      <c r="K49" s="5">
-        <f>K48+J49</f>
-        <v>290709.16803859867</v>
-      </c>
-      <c r="L49" s="5">
-        <f>$B$5*J49</f>
-        <v>3303.4987507210944</v>
-      </c>
-      <c r="M49" s="6">
-        <f>(1 / $B$9) * N48</f>
-        <v>675.79375843247738</v>
-      </c>
-      <c r="N49" s="5">
-        <f>N48+L49-M49</f>
-        <v>22901.517745262936</v>
-      </c>
-      <c r="O49" s="5">
-        <f>N49*$B$15</f>
-        <v>2290.1517745262936</v>
-      </c>
-      <c r="P49" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q49" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="50" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H50" s="1">
-        <v>43937</v>
-      </c>
-      <c r="I50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J50" s="4">
-        <f t="shared" si="6"/>
-        <v>37472.000000000044</v>
-      </c>
-      <c r="K50" s="5">
-        <f>K49+J50</f>
-        <v>328181.16803859873</v>
-      </c>
-      <c r="L50" s="5">
-        <f>$B$5*J50</f>
-        <v>3747.2000000000044</v>
-      </c>
-      <c r="M50" s="6">
-        <f>(1 / $B$9) * N49</f>
-        <v>763.38392484209783</v>
-      </c>
-      <c r="N50" s="5">
-        <f>N49+L50-M50</f>
-        <v>25885.333820420841</v>
-      </c>
-      <c r="O50" s="5">
-        <f>N50*$B$15</f>
-        <v>2588.5333820420838</v>
-      </c>
-      <c r="P50" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q50" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="51" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H51" s="1">
-        <v>43938</v>
-      </c>
-      <c r="I51" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J51" s="4">
-        <f t="shared" si="6"/>
-        <v>42504.958831708427</v>
-      </c>
-      <c r="K51" s="5">
-        <f>K50+J51</f>
-        <v>370686.12687030714</v>
-      </c>
-      <c r="L51" s="5">
-        <f>$B$5*J51</f>
-        <v>4250.4958831708427</v>
-      </c>
-      <c r="M51" s="6">
-        <f>(1 / $B$9) * N50</f>
-        <v>862.84446068069474</v>
-      </c>
-      <c r="N51" s="5">
-        <f>N50+L51-M51</f>
-        <v>29272.985242910989</v>
-      </c>
-      <c r="O51" s="5">
-        <f>N51*$B$15</f>
-        <v>2927.2985242910986</v>
-      </c>
-      <c r="P51" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q51" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="52" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H52" s="1">
-        <v>43939</v>
-      </c>
-      <c r="I52" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J52" s="4">
-        <f t="shared" si="6"/>
-        <v>48213.907058209494</v>
-      </c>
-      <c r="K52" s="5">
-        <f>K51+J52</f>
-        <v>418900.03392851661</v>
-      </c>
-      <c r="L52" s="5">
-        <f>$B$5*J52</f>
-        <v>4821.3907058209497</v>
-      </c>
-      <c r="M52" s="6">
-        <f>(1 / $B$9) * N51</f>
-        <v>975.76617476369961</v>
-      </c>
-      <c r="N52" s="5">
-        <f>N51+L52-M52</f>
-        <v>33118.609773968237</v>
-      </c>
-      <c r="O52" s="5">
-        <f>N52*$B$15</f>
-        <v>3311.8609773968233</v>
-      </c>
-      <c r="P52" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q52" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="53" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H53" s="1">
-        <v>43940</v>
-      </c>
-      <c r="I53" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J53" s="4">
-        <f t="shared" si="6"/>
-        <v>54689.638520095228</v>
-      </c>
-      <c r="K53" s="5">
-        <f>K52+J53</f>
-        <v>473589.67244861182</v>
-      </c>
-      <c r="L53" s="5">
-        <f>$B$5*J53</f>
-        <v>5468.9638520095232</v>
-      </c>
-      <c r="M53" s="6">
-        <f>(1 / $B$9) * N52</f>
-        <v>1103.9536591322747</v>
-      </c>
-      <c r="N53" s="5">
-        <f>N52+L53-M53</f>
-        <v>37483.619966845486</v>
-      </c>
-      <c r="O53" s="5">
-        <f>N53*$B$15</f>
-        <v>3748.3619966845486</v>
-      </c>
-      <c r="P53" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q53" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="54" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H54" s="1">
-        <v>43941</v>
-      </c>
-      <c r="I54" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J54" s="4">
-        <f t="shared" si="6"/>
-        <v>62035.141807687345</v>
-      </c>
-      <c r="K54" s="5">
-        <f>K53+J54</f>
-        <v>535624.81425629917</v>
-      </c>
-      <c r="L54" s="5">
-        <f>$B$5*J54</f>
-        <v>6203.5141807687351</v>
-      </c>
-      <c r="M54" s="6">
-        <f>(1 / $B$9) * N53</f>
-        <v>1249.4539988948495</v>
-      </c>
-      <c r="N54" s="5">
-        <f>N53+L54-M54</f>
-        <v>42437.680148719366</v>
-      </c>
-      <c r="O54" s="5">
-        <f>N54*$B$15</f>
-        <v>4243.7680148719364</v>
-      </c>
-      <c r="P54" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q54" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="55" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H55" s="1">
-        <v>43942</v>
-      </c>
-      <c r="I55" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J55" s="4">
-        <f t="shared" si="6"/>
-        <v>70367.238168631025</v>
-      </c>
-      <c r="K55" s="5">
-        <f>K54+J55</f>
-        <v>605992.05242493015</v>
-      </c>
-      <c r="L55" s="5">
-        <f>$B$5*J55</f>
-        <v>7036.7238168631029</v>
-      </c>
-      <c r="M55" s="6">
-        <f>(1 / $B$9) * N54</f>
-        <v>1414.5893382906456</v>
-      </c>
-      <c r="N55" s="5">
-        <f>N54+L55-M55</f>
-        <v>48059.814627291824</v>
-      </c>
-      <c r="O55" s="5">
-        <f>N55*$B$15</f>
-        <v>4805.9814627291817</v>
-      </c>
-      <c r="P55" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q55" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="56" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H56" s="1">
-        <v>43943</v>
-      </c>
-      <c r="I56" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J56" s="4">
-        <f t="shared" si="6"/>
-        <v>79818.439406988691</v>
-      </c>
-      <c r="K56" s="5">
-        <f>K55+J56</f>
-        <v>685810.49183191883</v>
-      </c>
-      <c r="L56" s="5">
-        <f>$B$5*J56</f>
-        <v>7981.8439406988691</v>
-      </c>
-      <c r="M56" s="6">
-        <f>(1 / $B$9) * N55</f>
-        <v>1601.9938209097274</v>
-      </c>
-      <c r="N56" s="5">
-        <f>N55+L56-M56</f>
-        <v>54439.664747080962</v>
-      </c>
-      <c r="O56" s="5">
-        <f>N56*$B$15</f>
-        <v>5443.966474708096</v>
-      </c>
-      <c r="P56" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q56" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="57" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H57" s="1">
-        <v>43944</v>
-      </c>
-      <c r="I57" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J57" s="4">
-        <f t="shared" si="6"/>
-        <v>90539.055321447056</v>
-      </c>
-      <c r="K57" s="5">
-        <f>K56+J57</f>
-        <v>776349.54715336591</v>
-      </c>
-      <c r="L57" s="5">
-        <f>$B$5*J57</f>
-        <v>9053.9055321447067</v>
-      </c>
-      <c r="M57" s="6">
-        <f>(1 / $B$9) * N56</f>
-        <v>1814.6554915693653</v>
-      </c>
-      <c r="N57" s="5">
-        <f>N56+L57-M57</f>
-        <v>61678.914787656307</v>
-      </c>
-      <c r="O57" s="5">
-        <f>N57*$B$15</f>
-        <v>6167.8914787656304</v>
-      </c>
-      <c r="P57" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q57" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="58" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H58" s="1">
-        <v>43945</v>
-      </c>
-      <c r="I58" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J58" s="4">
-        <f t="shared" si="6"/>
-        <v>102699.58419886514</v>
-      </c>
-      <c r="K58" s="5">
-        <f>K57+J58</f>
-        <v>879049.13135223102</v>
-      </c>
-      <c r="L58" s="5">
-        <f>$B$5*J58</f>
-        <v>10269.958419886514</v>
-      </c>
-      <c r="M58" s="6">
-        <f>(1 / $B$9) * N57</f>
-        <v>2055.9638262552103</v>
-      </c>
-      <c r="N58" s="5">
-        <f>N57+L58-M58</f>
-        <v>69892.909381287624</v>
-      </c>
-      <c r="O58" s="5">
-        <f>N58*$B$15</f>
-        <v>6989.2909381287618</v>
-      </c>
-      <c r="P58" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q58" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="59" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H59" s="1">
-        <v>43946</v>
-      </c>
-      <c r="I59" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J59" s="4">
-        <f t="shared" si="6"/>
-        <v>116493.42438103999</v>
-      </c>
-      <c r="K59" s="5">
-        <f>K58+J59</f>
-        <v>995542.55573327106</v>
-      </c>
-      <c r="L59" s="5">
-        <f>$B$5*J59</f>
-        <v>11649.342438104</v>
-      </c>
-      <c r="M59" s="6">
-        <f>(1 / $B$9) * N58</f>
-        <v>2329.7636460429208</v>
-      </c>
-      <c r="N59" s="5">
-        <f>N58+L59-M59</f>
-        <v>79212.488173348698</v>
-      </c>
-      <c r="O59" s="5">
-        <f>N59*$B$15</f>
-        <v>7921.2488173348693</v>
-      </c>
-      <c r="P59" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q59" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="60" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H60" s="1">
-        <v>43947</v>
-      </c>
-      <c r="I60" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J60" s="4">
-        <f t="shared" si="6"/>
-        <v>132139.95002884389</v>
-      </c>
-      <c r="K60" s="5">
-        <f>K59+J60</f>
-        <v>1127682.5057621149</v>
-      </c>
-      <c r="L60" s="5">
-        <f>$B$5*J60</f>
-        <v>13213.995002884389</v>
-      </c>
-      <c r="M60" s="6">
-        <f>(1 / $B$9) * N59</f>
-        <v>2640.4162724449566</v>
-      </c>
-      <c r="N60" s="5">
-        <f>N59+L60-M60</f>
-        <v>89786.066903788131</v>
-      </c>
-      <c r="O60" s="5">
-        <f>N60*$B$15</f>
-        <v>8978.6066903788123</v>
-      </c>
-      <c r="P60" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q60" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="61" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H61" s="1">
-        <v>43948</v>
-      </c>
-      <c r="I61" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J61" s="4">
-        <f t="shared" si="6"/>
-        <v>149888.00000000029</v>
-      </c>
-      <c r="K61" s="5">
-        <f>K60+J61</f>
-        <v>1277570.5057621151</v>
-      </c>
-      <c r="L61" s="5">
-        <f>$B$5*J61</f>
-        <v>14988.80000000003</v>
-      </c>
-      <c r="M61" s="6">
-        <f>(1 / $B$9) * N60</f>
-        <v>2992.8688967929374</v>
-      </c>
-      <c r="N61" s="5">
-        <f>N60+L61-M61</f>
-        <v>101781.99800699523</v>
-      </c>
-      <c r="O61" s="5">
-        <f>N61*$B$15</f>
-        <v>10178.199800699522</v>
-      </c>
-      <c r="P61" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q61" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="62" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H62" s="1">
-        <v>43949</v>
-      </c>
-      <c r="I62" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J62" s="4">
-        <f t="shared" si="6"/>
-        <v>170019.83532683383</v>
-      </c>
-      <c r="K62" s="5">
-        <f>K61+J62</f>
-        <v>1447590.341088949</v>
-      </c>
-      <c r="L62" s="5">
-        <f>$B$5*J62</f>
-        <v>17001.983532683382</v>
-      </c>
-      <c r="M62" s="6">
-        <f>(1 / $B$9) * N61</f>
-        <v>3392.7332668998411</v>
-      </c>
-      <c r="N62" s="5">
-        <f>N61+L62-M62</f>
-        <v>115391.24827277877</v>
-      </c>
-      <c r="O62" s="5">
-        <f>N62*$B$15</f>
-        <v>11539.124827277876</v>
-      </c>
-      <c r="P62" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q62" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="63" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H63" s="1">
-        <v>43950</v>
-      </c>
-      <c r="I63" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J63" s="4">
-        <f t="shared" si="6"/>
-        <v>192855.62823283809</v>
-      </c>
-      <c r="K63" s="5">
-        <f>K62+J63</f>
-        <v>1640445.9693217871</v>
-      </c>
-      <c r="L63" s="5">
-        <f>$B$5*J63</f>
-        <v>19285.56282328381</v>
-      </c>
-      <c r="M63" s="6">
-        <f>(1 / $B$9) * N62</f>
-        <v>3846.374942425959</v>
-      </c>
-      <c r="N63" s="5">
-        <f>N62+L63-M63</f>
-        <v>130830.43615363663</v>
-      </c>
-      <c r="O63" s="5">
-        <f>N63*$B$15</f>
-        <v>13083.043615363662</v>
-      </c>
-      <c r="P63" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q63" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="64" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H64" s="1">
-        <v>43951</v>
-      </c>
-      <c r="I64" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J64" s="4">
-        <f>J63*(1 + $B$14)</f>
-        <v>218758.55408038106</v>
-      </c>
-      <c r="K64" s="5">
-        <f>K63+J64</f>
-        <v>1859204.5234021682</v>
-      </c>
-      <c r="L64" s="5">
-        <f>$B$5*J64</f>
-        <v>21875.855408038107</v>
-      </c>
-      <c r="M64" s="6">
-        <f>(1 / $B$9) * N63</f>
-        <v>4361.014538454554</v>
-      </c>
-      <c r="N64" s="5">
-        <f>N63+L64-M64</f>
-        <v>148345.27702322017</v>
-      </c>
-      <c r="O64" s="5">
-        <f>N64*$B$15</f>
-        <v>14834.527702322017</v>
-      </c>
-      <c r="P64" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q64" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="65" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H65" s="1">
-        <v>43952</v>
-      </c>
-      <c r="I65" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J65" s="4">
-        <f>J64*(1 + $B$14)</f>
-        <v>248140.56723074956</v>
-      </c>
-      <c r="K65" s="5">
-        <f t="shared" ref="K65:K70" si="7">K64+J65</f>
-        <v>2107345.0906329178</v>
-      </c>
-      <c r="L65" s="5">
-        <f t="shared" ref="L65:L70" si="8">$B$5*J65</f>
-        <v>24814.056723074958</v>
-      </c>
-      <c r="M65" s="6">
-        <f t="shared" ref="M65:M70" si="9">(1 / $B$9) * N64</f>
-        <v>4944.8425674406726</v>
-      </c>
-      <c r="N65" s="5">
-        <f t="shared" ref="N65:N70" si="10">N64+L65-M65</f>
-        <v>168214.49117885446</v>
-      </c>
-      <c r="O65" s="5">
-        <f t="shared" ref="O65:O70" si="11">N65*$B$15</f>
-        <v>16821.449117885444</v>
-      </c>
-      <c r="P65" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q65" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="66" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H66" s="1">
-        <v>43953</v>
-      </c>
-      <c r="I66" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J66" s="4">
-        <f>J65*(1 + $B$14)</f>
-        <v>281468.95267452428</v>
-      </c>
-      <c r="K66" s="5">
-        <f t="shared" si="7"/>
-        <v>2388814.0433074422</v>
-      </c>
-      <c r="L66" s="5">
-        <f t="shared" si="8"/>
-        <v>28146.89526745243</v>
-      </c>
-      <c r="M66" s="6">
-        <f t="shared" si="9"/>
-        <v>5607.149705961815</v>
-      </c>
-      <c r="N66" s="5">
-        <f t="shared" si="10"/>
-        <v>190754.23674034508</v>
-      </c>
-      <c r="O66" s="5">
-        <f t="shared" si="11"/>
-        <v>19075.423674034508</v>
-      </c>
-      <c r="P66" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q66" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="67" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H67" s="1">
-        <v>43954</v>
-      </c>
-      <c r="I67" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J67" s="4">
-        <f>J66*(1 + $B$14)</f>
-        <v>319273.75762795494</v>
-      </c>
-      <c r="K67" s="5">
-        <f t="shared" si="7"/>
-        <v>2708087.8009353969</v>
-      </c>
-      <c r="L67" s="5">
-        <f t="shared" si="8"/>
-        <v>31927.375762795495</v>
-      </c>
-      <c r="M67" s="6">
-        <f t="shared" si="9"/>
-        <v>6358.4745580115023</v>
-      </c>
-      <c r="N67" s="5">
-        <f t="shared" si="10"/>
-        <v>216323.13794512907</v>
-      </c>
-      <c r="O67" s="5">
-        <f t="shared" si="11"/>
-        <v>21632.313794512906</v>
-      </c>
-      <c r="P67" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q67" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="68" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H68" s="1">
-        <v>43955</v>
-      </c>
-      <c r="I68" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J68" s="4">
-        <f>J67*(1 + $B$14)</f>
-        <v>362156.2212857884</v>
-      </c>
-      <c r="K68" s="5">
-        <f t="shared" si="7"/>
-        <v>3070244.0222211853</v>
-      </c>
-      <c r="L68" s="5">
-        <f t="shared" si="8"/>
-        <v>36215.622128578842</v>
-      </c>
-      <c r="M68" s="6">
-        <f t="shared" si="9"/>
-        <v>7210.7712648376355</v>
-      </c>
-      <c r="N68" s="5">
-        <f t="shared" si="10"/>
-        <v>245327.98880887026</v>
-      </c>
-      <c r="O68" s="5">
-        <f t="shared" si="11"/>
-        <v>24532.798880887025</v>
-      </c>
-      <c r="P68" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q68" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="69" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H69" s="1">
-        <v>43956</v>
-      </c>
-      <c r="I69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J69" s="4">
-        <f>J68*(1 + $B$14)</f>
-        <v>410798.33679546072</v>
-      </c>
-      <c r="K69" s="5">
-        <f t="shared" si="7"/>
-        <v>3481042.3590166462</v>
-      </c>
-      <c r="L69" s="5">
-        <f t="shared" si="8"/>
-        <v>41079.833679546078</v>
-      </c>
-      <c r="M69" s="6">
-        <f t="shared" si="9"/>
-        <v>8177.599626962342</v>
-      </c>
-      <c r="N69" s="5">
-        <f t="shared" si="10"/>
-        <v>278230.22286145401</v>
-      </c>
-      <c r="O69" s="5">
-        <f t="shared" si="11"/>
-        <v>27823.022286145399</v>
-      </c>
-      <c r="P69" s="5">
-        <f t="shared" ref="P69" si="12">$B$7</f>
-        <v>5600</v>
-      </c>
-      <c r="Q69" s="5">
-        <f t="shared" ref="Q69" si="13">$B$8</f>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="70" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H70" s="1">
-        <v>43957</v>
-      </c>
-      <c r="I70" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J70" s="4">
-        <f>J69*(1 + $B$14)</f>
-        <v>465973.6975241602</v>
-      </c>
-      <c r="K70" s="5">
-        <f t="shared" si="7"/>
-        <v>3947016.0565408063</v>
-      </c>
-      <c r="L70" s="5">
-        <f t="shared" si="8"/>
-        <v>46597.369752416023</v>
-      </c>
-      <c r="M70" s="6">
-        <f t="shared" si="9"/>
-        <v>9274.3407620484668</v>
-      </c>
-      <c r="N70" s="5">
-        <f t="shared" si="10"/>
-        <v>315553.25185182155</v>
-      </c>
-      <c r="O70" s="5">
-        <f t="shared" si="11"/>
-        <v>31555.325185182151</v>
-      </c>
-      <c r="P70" s="5">
-        <f t="shared" si="1"/>
-        <v>5600</v>
-      </c>
-      <c r="Q70" s="5">
-        <f t="shared" si="2"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="71" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H71" s="1">
-        <v>43958</v>
-      </c>
-      <c r="I71" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J71" s="4">
-        <f>J70*(1 + $B$14)</f>
-        <v>528559.80011537578</v>
-      </c>
-      <c r="K71" s="5">
-        <f>K70+J71</f>
-        <v>4475575.8566561826</v>
-      </c>
-      <c r="L71" s="5">
-        <f t="shared" ref="L71:L76" si="14">$B$5*J71</f>
-        <v>52855.980011537584</v>
-      </c>
-      <c r="M71" s="6">
-        <f t="shared" ref="M71:M76" si="15">(1 / $B$9) * N70</f>
-        <v>10518.441728394051</v>
-      </c>
-      <c r="N71" s="5">
-        <f>N70+L71-M71</f>
-        <v>357890.79013496503</v>
-      </c>
-      <c r="O71" s="5">
-        <f>N71*$B$15</f>
-        <v>35789.079013496499</v>
-      </c>
-      <c r="P71" s="5">
-        <f t="shared" ref="P71:P76" si="16">$B$7</f>
-        <v>5600</v>
-      </c>
-      <c r="Q71" s="5">
-        <f t="shared" ref="Q71:Q76" si="17">$B$8</f>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="72" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H72" s="1">
-        <v>43959</v>
-      </c>
-      <c r="I72" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J72" s="4">
-        <f>J71*(1 + $B$14)</f>
-        <v>599552.00000000151</v>
-      </c>
-      <c r="K72" s="5">
-        <f>K71+J72</f>
-        <v>5075127.8566561844</v>
-      </c>
-      <c r="L72" s="5">
-        <f t="shared" si="14"/>
-        <v>59955.200000000157</v>
-      </c>
-      <c r="M72" s="6">
-        <f t="shared" si="15"/>
-        <v>11929.693004498835</v>
-      </c>
-      <c r="N72" s="5">
-        <f>N71+L72-M72</f>
-        <v>405916.29713046632</v>
-      </c>
-      <c r="O72" s="5">
-        <f>N72*$B$15</f>
-        <v>40591.629713046626</v>
-      </c>
-      <c r="P72" s="5">
-        <f t="shared" si="16"/>
-        <v>5600</v>
-      </c>
-      <c r="Q72" s="5">
-        <f t="shared" si="17"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="73" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H73" s="1">
-        <v>43960</v>
-      </c>
-      <c r="I73" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J73" s="4">
-        <f>J72*(1 + $B$14)</f>
-        <v>680079.34130733577</v>
-      </c>
-      <c r="K73" s="5">
-        <f>K72+J73</f>
-        <v>5755207.19796352</v>
-      </c>
-      <c r="L73" s="5">
-        <f t="shared" si="14"/>
-        <v>68007.934130733585</v>
-      </c>
-      <c r="M73" s="6">
-        <f t="shared" si="15"/>
-        <v>13530.54323768221</v>
-      </c>
-      <c r="N73" s="5">
-        <f>N72+L73-M73</f>
-        <v>460393.68802351772</v>
-      </c>
-      <c r="O73" s="5">
-        <f>N73*$B$15</f>
-        <v>46039.368802351768</v>
-      </c>
-      <c r="P73" s="5">
-        <f t="shared" si="16"/>
-        <v>5600</v>
-      </c>
-      <c r="Q73" s="5">
-        <f t="shared" si="17"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="74" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H74" s="1">
-        <v>43961</v>
-      </c>
-      <c r="I74" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J74" s="4">
-        <f>J73*(1 + $B$14)</f>
-        <v>771422.51293135295</v>
-      </c>
-      <c r="K74" s="5">
-        <f>K73+J74</f>
-        <v>6526629.7108948734</v>
-      </c>
-      <c r="L74" s="5">
-        <f t="shared" si="14"/>
-        <v>77142.251293135298</v>
-      </c>
-      <c r="M74" s="6">
-        <f t="shared" si="15"/>
-        <v>15346.456267450591</v>
-      </c>
-      <c r="N74" s="5">
-        <f>N73+L74-M74</f>
-        <v>522189.48304920248</v>
-      </c>
-      <c r="O74" s="5">
-        <f>N74*$B$15</f>
-        <v>52218.948304920246</v>
-      </c>
-      <c r="P74" s="5">
-        <f t="shared" si="16"/>
-        <v>5600</v>
-      </c>
-      <c r="Q74" s="5">
-        <f t="shared" si="17"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="75" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H75" s="1">
-        <v>43962</v>
-      </c>
-      <c r="I75" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J75" s="4">
-        <f>J74*(1 + $B$14)</f>
-        <v>875034.21632152481</v>
-      </c>
-      <c r="K75" s="5">
-        <f>K74+J75</f>
-        <v>7401663.9272163985</v>
-      </c>
-      <c r="L75" s="5">
-        <f t="shared" si="14"/>
-        <v>87503.421632152487</v>
-      </c>
-      <c r="M75" s="6">
-        <f t="shared" si="15"/>
-        <v>17406.316101640081</v>
-      </c>
-      <c r="N75" s="5">
-        <f>N74+L75-M75</f>
-        <v>592286.58857971488</v>
-      </c>
-      <c r="O75" s="5">
-        <f>N75*$B$15</f>
-        <v>59228.658857971481</v>
-      </c>
-      <c r="P75" s="5">
-        <f t="shared" si="16"/>
-        <v>5600</v>
-      </c>
-      <c r="Q75" s="5">
-        <f t="shared" si="17"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="76" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H76" s="1">
-        <v>43963</v>
-      </c>
-      <c r="I76" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J76" s="4">
-        <f>J75*(1 + $B$14)</f>
-        <v>992562.26892299892</v>
-      </c>
-      <c r="K76" s="5">
-        <f>K75+J76</f>
-        <v>8394226.1961393971</v>
-      </c>
-      <c r="L76" s="5">
-        <f t="shared" si="14"/>
-        <v>99256.226892299892</v>
-      </c>
-      <c r="M76" s="6">
-        <f t="shared" si="15"/>
-        <v>19742.886285990495</v>
-      </c>
-      <c r="N76" s="5">
-        <f>N75+L76-M76</f>
-        <v>671799.92918602424</v>
-      </c>
-      <c r="O76" s="5">
-        <f>N76*$B$15</f>
-        <v>67179.992918602424</v>
-      </c>
-      <c r="P76" s="5">
-        <f t="shared" si="16"/>
-        <v>5600</v>
-      </c>
-      <c r="Q76" s="5">
-        <f t="shared" si="17"/>
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="78" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H78" s="1"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="5"/>
-      <c r="L78" s="5"/>
-      <c r="M78" s="6"/>
-      <c r="N78" s="5"/>
-      <c r="O78" s="5"/>
-      <c r="P78" s="5"/>
-      <c r="Q78" s="5"/>
-    </row>
-    <row r="79" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H79" s="1"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="5"/>
-      <c r="L79" s="5"/>
-      <c r="M79" s="6"/>
-      <c r="N79" s="5"/>
-      <c r="O79" s="5"/>
-      <c r="P79" s="5"/>
-      <c r="Q79" s="5"/>
-    </row>
-    <row r="80" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H80" s="1"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="5"/>
-      <c r="L80" s="5"/>
-      <c r="M80" s="6"/>
-      <c r="N80" s="5"/>
-      <c r="O80" s="5"/>
-      <c r="P80" s="5"/>
-      <c r="Q80" s="5"/>
-    </row>
-    <row r="81" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H81" s="1"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="5"/>
-      <c r="L81" s="5"/>
-      <c r="M81" s="6"/>
-      <c r="N81" s="5"/>
-      <c r="O81" s="5"/>
-      <c r="P81" s="5"/>
-      <c r="Q81" s="5"/>
-    </row>
-    <row r="82" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H82" s="1"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="5"/>
-      <c r="L82" s="5"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="5"/>
-      <c r="O82" s="5"/>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="5"/>
-    </row>
-    <row r="83" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H83" s="1"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="6"/>
-      <c r="N83" s="5"/>
-      <c r="O83" s="5"/>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5"/>
-    </row>
-    <row r="84" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H84" s="1"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="5"/>
-      <c r="L84" s="5"/>
-      <c r="M84" s="6"/>
-      <c r="N84" s="5"/>
-      <c r="O84" s="5"/>
-      <c r="P84" s="5"/>
-      <c r="Q84" s="5"/>
-    </row>
-    <row r="85" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H85" s="1"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="5"/>
-      <c r="L85" s="5"/>
-      <c r="M85" s="6"/>
-      <c r="N85" s="5"/>
-      <c r="O85" s="5"/>
-      <c r="P85" s="5"/>
-      <c r="Q85" s="5"/>
-    </row>
-    <row r="86" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H86" s="1"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
-      <c r="M86" s="6"/>
-      <c r="N86" s="5"/>
-      <c r="O86" s="5"/>
-      <c r="P86" s="5"/>
-      <c r="Q86" s="5"/>
-    </row>
-    <row r="87" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H87" s="1"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="5"/>
-      <c r="L87" s="5"/>
-      <c r="M87" s="6"/>
-      <c r="N87" s="5"/>
-      <c r="O87" s="5"/>
-      <c r="P87" s="5"/>
-      <c r="Q87" s="5"/>
-    </row>
-    <row r="88" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H88" s="1"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="5"/>
-      <c r="L88" s="5"/>
-      <c r="M88" s="6"/>
-      <c r="N88" s="5"/>
-      <c r="O88" s="5"/>
-      <c r="P88" s="5"/>
-      <c r="Q88" s="5"/>
-    </row>
-    <row r="89" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H89" s="1"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="5"/>
-      <c r="L89" s="5"/>
-      <c r="M89" s="6"/>
-      <c r="N89" s="5"/>
-      <c r="O89" s="5"/>
-      <c r="P89" s="5"/>
-      <c r="Q89" s="5"/>
-    </row>
-    <row r="90" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H90" s="1"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="5"/>
-      <c r="L90" s="5"/>
-      <c r="M90" s="6"/>
-      <c r="N90" s="5"/>
-      <c r="O90" s="5"/>
-      <c r="P90" s="5"/>
-      <c r="Q90" s="5"/>
-    </row>
-    <row r="91" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H91" s="1"/>
-      <c r="J91" s="4"/>
-      <c r="K91" s="5"/>
-      <c r="L91" s="5"/>
-      <c r="M91" s="6"/>
-      <c r="N91" s="5"/>
-      <c r="O91" s="5"/>
-      <c r="P91" s="5"/>
-      <c r="Q91" s="5"/>
-    </row>
-    <row r="92" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H92" s="1"/>
-      <c r="J92" s="4"/>
-      <c r="K92" s="5"/>
-      <c r="L92" s="5"/>
-      <c r="M92" s="6"/>
-      <c r="N92" s="5"/>
-      <c r="O92" s="5"/>
-      <c r="P92" s="5"/>
-      <c r="Q92" s="5"/>
-    </row>
-    <row r="93" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H93" s="1"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="5"/>
-      <c r="L93" s="5"/>
-      <c r="M93" s="6"/>
-      <c r="N93" s="5"/>
-      <c r="O93" s="5"/>
-      <c r="P93" s="5"/>
-      <c r="Q93" s="5"/>
-    </row>
-    <row r="94" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H94" s="1"/>
-      <c r="J94" s="4"/>
-      <c r="K94" s="5"/>
-      <c r="L94" s="5"/>
-      <c r="M94" s="6"/>
-      <c r="N94" s="5"/>
-      <c r="O94" s="5"/>
-      <c r="P94" s="5"/>
-      <c r="Q94" s="5"/>
-    </row>
-    <row r="95" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H95" s="1"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="5"/>
-      <c r="L95" s="5"/>
-      <c r="M95" s="6"/>
-      <c r="N95" s="5"/>
-      <c r="O95" s="5"/>
-      <c r="P95" s="5"/>
-      <c r="Q95" s="5"/>
-    </row>
-    <row r="96" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H96" s="1"/>
-      <c r="J96" s="4"/>
-      <c r="K96" s="5"/>
-      <c r="L96" s="5"/>
-      <c r="M96" s="6"/>
-      <c r="N96" s="5"/>
-      <c r="O96" s="5"/>
-      <c r="P96" s="5"/>
-      <c r="Q96" s="5"/>
-    </row>
-    <row r="97" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H97" s="1"/>
-      <c r="J97" s="4"/>
-      <c r="K97" s="5"/>
-      <c r="L97" s="5"/>
-      <c r="M97" s="6"/>
-      <c r="N97" s="5"/>
-      <c r="O97" s="5"/>
-      <c r="P97" s="5"/>
-      <c r="Q97" s="5"/>
-    </row>
-    <row r="98" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H98" s="1"/>
-      <c r="J98" s="4"/>
-      <c r="K98" s="5"/>
-      <c r="L98" s="5"/>
-      <c r="M98" s="6"/>
-      <c r="N98" s="5"/>
-      <c r="O98" s="5"/>
-      <c r="P98" s="5"/>
-      <c r="Q98" s="5"/>
-    </row>
-    <row r="99" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H99" s="1"/>
-      <c r="J99" s="4"/>
-      <c r="K99" s="5"/>
-      <c r="L99" s="5"/>
-      <c r="M99" s="6"/>
-      <c r="N99" s="5"/>
-      <c r="O99" s="5"/>
-      <c r="P99" s="5"/>
-      <c r="Q99" s="5"/>
-    </row>
-    <row r="100" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H100" s="1"/>
-      <c r="J100" s="4"/>
-      <c r="K100" s="5"/>
-      <c r="L100" s="5"/>
-      <c r="M100" s="6"/>
-      <c r="N100" s="5"/>
-      <c r="O100" s="5"/>
-      <c r="P100" s="5"/>
-      <c r="Q100" s="5"/>
-    </row>
-    <row r="101" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H101" s="1"/>
-      <c r="J101" s="4"/>
-      <c r="K101" s="5"/>
-      <c r="L101" s="5"/>
-      <c r="M101" s="6"/>
-      <c r="N101" s="5"/>
-      <c r="O101" s="5"/>
-      <c r="P101" s="5"/>
-      <c r="Q101" s="5"/>
-    </row>
-    <row r="102" spans="8:17" x14ac:dyDescent="0.2">
-      <c r="H102" s="1"/>
-      <c r="J102" s="4"/>
-      <c r="K102" s="5"/>
-      <c r="L102" s="5"/>
-      <c r="M102" s="6"/>
-      <c r="N102" s="5"/>
-      <c r="O102" s="5"/>
-      <c r="P102" s="5"/>
-      <c r="Q102" s="5"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED9F208-F8B8-6F4A-8044-871F4C165691}">
+  <dimension ref="A1:J101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" customWidth="1"/>
+    <col min="9" max="9" width="22.5" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+    </row>
+    <row r="2" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B3" s="4">
+        <v>54</v>
+      </c>
+      <c r="C3" s="5">
+        <f>B3</f>
+        <v>54</v>
+      </c>
+      <c r="D3" s="4">
+        <f>B3</f>
+        <v>54</v>
+      </c>
+      <c r="E3" s="5">
+        <f>Modell!$B$5*D3</f>
+        <v>5.4</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <f>E3</f>
+        <v>5.4</v>
+      </c>
+      <c r="H3" s="5">
+        <f>G3*Modell!$G$5</f>
+        <v>0.54</v>
+      </c>
+      <c r="I3" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J3" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>43892</v>
+      </c>
+      <c r="B4" s="4">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5">
+        <f>IF(ISNA(B4), (1 + Modell!$G$4)*C3, C3+B4)</f>
+        <v>72</v>
+      </c>
+      <c r="D4" s="4">
+        <f>C4-C3</f>
+        <v>18</v>
+      </c>
+      <c r="E4" s="5">
+        <f>Modell!$B$5*D4</f>
+        <v>1.8</v>
+      </c>
+      <c r="F4" s="6">
+        <f>Modell!$G$6 * G3</f>
+        <v>0.21600000000000003</v>
+      </c>
+      <c r="G4" s="5">
+        <f>G3+E4-F4</f>
+        <v>6.984</v>
+      </c>
+      <c r="H4" s="5">
+        <f>G4*Modell!$G$5</f>
+        <v>0.69839999999999991</v>
+      </c>
+      <c r="I4" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J4" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>43893</v>
+      </c>
+      <c r="B5" s="4">
+        <v>28</v>
+      </c>
+      <c r="C5" s="5">
+        <f>IF(ISNA(B5), (1 + Modell!$G$4)*C4, C4+B5)</f>
+        <v>100</v>
+      </c>
+      <c r="D5" s="4">
+        <f>C5-C4</f>
+        <v>28</v>
+      </c>
+      <c r="E5" s="5">
+        <f>Modell!$B$5*D5</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="F5" s="6">
+        <f>Modell!$G$6 * G4</f>
+        <v>0.27936</v>
+      </c>
+      <c r="G5" s="5">
+        <f>G4+E5-F5</f>
+        <v>9.5046400000000002</v>
+      </c>
+      <c r="H5" s="5">
+        <f>G5*Modell!$G$5</f>
+        <v>0.95046399999999998</v>
+      </c>
+      <c r="I5" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J5" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>43894</v>
+      </c>
+      <c r="B6" s="4">
+        <v>39</v>
+      </c>
+      <c r="C6" s="5">
+        <f>IF(ISNA(B6), (1 + Modell!$G$4)*C5, C5+B6)</f>
+        <v>139</v>
+      </c>
+      <c r="D6" s="4">
+        <f>C6-C5</f>
+        <v>39</v>
+      </c>
+      <c r="E6" s="5">
+        <f>Modell!$B$5*D6</f>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="F6" s="6">
+        <f>Modell!$G$6 * G5</f>
+        <v>0.38018560000000001</v>
+      </c>
+      <c r="G6" s="5">
+        <f>G5+E6-F6</f>
+        <v>13.0244544</v>
+      </c>
+      <c r="H6" s="5">
+        <f>G6*Modell!$G$5</f>
+        <v>1.3024454399999998</v>
+      </c>
+      <c r="I6" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J6" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>43895</v>
+      </c>
+      <c r="B7" s="4">
+        <v>66</v>
+      </c>
+      <c r="C7" s="5">
+        <f>IF(ISNA(B7), (1 + Modell!$G$4)*C6, C6+B7)</f>
+        <v>205</v>
+      </c>
+      <c r="D7" s="4">
+        <f>C7-C6</f>
+        <v>66</v>
+      </c>
+      <c r="E7" s="5">
+        <f>Modell!$B$5*D7</f>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="F7" s="6">
+        <f>Modell!$G$6 * G6</f>
+        <v>0.52097817599999996</v>
+      </c>
+      <c r="G7" s="5">
+        <f>G6+E7-F7</f>
+        <v>19.103476224000001</v>
+      </c>
+      <c r="H7" s="5">
+        <f>G7*Modell!$G$5</f>
+        <v>1.9103476224</v>
+      </c>
+      <c r="I7" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J7" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B8" s="4">
+        <v>138</v>
+      </c>
+      <c r="C8" s="5">
+        <f>IF(ISNA(B8), (1 + Modell!$G$4)*C7, C7+B8)</f>
+        <v>343</v>
+      </c>
+      <c r="D8" s="4">
+        <f>C8-C7</f>
+        <v>138</v>
+      </c>
+      <c r="E8" s="5">
+        <f>Modell!$B$5*D8</f>
+        <v>13.8</v>
+      </c>
+      <c r="F8" s="6">
+        <f>Modell!$G$6 * G7</f>
+        <v>0.76413904896000007</v>
+      </c>
+      <c r="G8" s="5">
+        <f>G7+E8-F8</f>
+        <v>32.139337175040005</v>
+      </c>
+      <c r="H8" s="5">
+        <f>G8*Modell!$G$5</f>
+        <v>3.2139337175040001</v>
+      </c>
+      <c r="I8" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J8" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B9" s="4">
+        <v>284</v>
+      </c>
+      <c r="C9" s="5">
+        <f>IF(ISNA(B9), (1 + Modell!$G$4)*C8, C8+B9)</f>
+        <v>627</v>
+      </c>
+      <c r="D9" s="4">
+        <f>C9-C8</f>
+        <v>284</v>
+      </c>
+      <c r="E9" s="5">
+        <f>Modell!$B$5*D9</f>
+        <v>28.400000000000002</v>
+      </c>
+      <c r="F9" s="6">
+        <f>Modell!$G$6 * G8</f>
+        <v>1.2855734870016002</v>
+      </c>
+      <c r="G9" s="5">
+        <f>G8+E9-F9</f>
+        <v>59.253763688038404</v>
+      </c>
+      <c r="H9" s="5">
+        <f>G9*Modell!$G$5</f>
+        <v>5.9253763688038399</v>
+      </c>
+      <c r="I9" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J9" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B10" s="4">
+        <v>163</v>
+      </c>
+      <c r="C10" s="5">
+        <f>IF(ISNA(B10), (1 + Modell!$G$4)*C9, C9+B10)</f>
+        <v>790</v>
+      </c>
+      <c r="D10" s="4">
+        <f>C10-C9</f>
+        <v>163</v>
+      </c>
+      <c r="E10" s="5">
+        <f>Modell!$B$5*D10</f>
+        <v>16.3</v>
+      </c>
+      <c r="F10" s="6">
+        <f>Modell!$G$6 * G9</f>
+        <v>2.3701505475215363</v>
+      </c>
+      <c r="G10" s="5">
+        <f>G9+E10-F10</f>
+        <v>73.183613140516869</v>
+      </c>
+      <c r="H10" s="5">
+        <f>G10*Modell!$G$5</f>
+        <v>7.3183613140516863</v>
+      </c>
+      <c r="I10" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J10" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>43899</v>
+      </c>
+      <c r="B11" s="4">
+        <v>55</v>
+      </c>
+      <c r="C11" s="5">
+        <f>IF(ISNA(B11), (1 + Modell!$G$4)*C10, C10+B11)</f>
+        <v>845</v>
+      </c>
+      <c r="D11" s="4">
+        <f>C11-C10</f>
+        <v>55</v>
+      </c>
+      <c r="E11" s="5">
+        <f>Modell!$B$5*D11</f>
+        <v>5.5</v>
+      </c>
+      <c r="F11" s="6">
+        <f>Modell!$G$6 * G10</f>
+        <v>2.9273445256206747</v>
+      </c>
+      <c r="G11" s="5">
+        <f>G10+E11-F11</f>
+        <v>75.7562686148962</v>
+      </c>
+      <c r="H11" s="5">
+        <f>G11*Modell!$G$5</f>
+        <v>7.5756268614896189</v>
+      </c>
+      <c r="I11" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J11" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>43900</v>
+      </c>
+      <c r="B12" s="4">
+        <v>237</v>
+      </c>
+      <c r="C12" s="5">
+        <f>IF(ISNA(B12), (1 + Modell!$G$4)*C11, C11+B12)</f>
+        <v>1082</v>
+      </c>
+      <c r="D12" s="4">
+        <f>C12-C11</f>
+        <v>237</v>
+      </c>
+      <c r="E12" s="5">
+        <f>Modell!$B$5*D12</f>
+        <v>23.700000000000003</v>
+      </c>
+      <c r="F12" s="6">
+        <f>Modell!$G$6 * G11</f>
+        <v>3.0302507445958482</v>
+      </c>
+      <c r="G12" s="5">
+        <f>G11+E12-F12</f>
+        <v>96.426017870300356</v>
+      </c>
+      <c r="H12" s="5">
+        <f>G12*Modell!$G$5</f>
+        <v>9.6426017870300349</v>
+      </c>
+      <c r="I12" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J12" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>43901</v>
+      </c>
+      <c r="B13" s="4">
+        <v>157</v>
+      </c>
+      <c r="C13" s="5">
+        <f>IF(ISNA(B13), (1 + Modell!$G$4)*C12, C12+B13)</f>
+        <v>1239</v>
+      </c>
+      <c r="D13" s="4">
+        <f>C13-C12</f>
+        <v>157</v>
+      </c>
+      <c r="E13" s="5">
+        <f>Modell!$B$5*D13</f>
+        <v>15.700000000000001</v>
+      </c>
+      <c r="F13" s="6">
+        <f>Modell!$G$6 * G12</f>
+        <v>3.8570407148120145</v>
+      </c>
+      <c r="G13" s="5">
+        <f>G12+E13-F13</f>
+        <v>108.26897715548834</v>
+      </c>
+      <c r="H13" s="5">
+        <f>G13*Modell!$G$5</f>
+        <v>10.826897715548833</v>
+      </c>
+      <c r="I13" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J13" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>43902</v>
+      </c>
+      <c r="B14" s="4">
+        <v>271</v>
+      </c>
+      <c r="C14" s="5">
+        <f>IF(ISNA(B14), (1 + Modell!$G$4)*C13, C13+B14)</f>
+        <v>1510</v>
+      </c>
+      <c r="D14" s="4">
+        <f>C14-C13</f>
+        <v>271</v>
+      </c>
+      <c r="E14" s="5">
+        <f>Modell!$B$5*D14</f>
+        <v>27.1</v>
+      </c>
+      <c r="F14" s="6">
+        <f>Modell!$G$6 * G13</f>
+        <v>4.3307590862195342</v>
+      </c>
+      <c r="G14" s="5">
+        <f>G13+E14-F14</f>
+        <v>131.03821806926882</v>
+      </c>
+      <c r="H14" s="5">
+        <f>G14*Modell!$G$5</f>
+        <v>13.103821806926881</v>
+      </c>
+      <c r="I14" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J14" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>43903</v>
+      </c>
+      <c r="B15" s="4">
+        <v>802</v>
+      </c>
+      <c r="C15" s="5">
+        <f>IF(ISNA(B15), (1 + Modell!$G$4)*C14, C14+B15)</f>
+        <v>2312</v>
+      </c>
+      <c r="D15" s="4">
+        <f>C15-C14</f>
+        <v>802</v>
+      </c>
+      <c r="E15" s="5">
+        <f>Modell!$B$5*D15</f>
+        <v>80.2</v>
+      </c>
+      <c r="F15" s="6">
+        <f>Modell!$G$6 * G14</f>
+        <v>5.2415287227707532</v>
+      </c>
+      <c r="G15" s="5">
+        <f>G14+E15-F15</f>
+        <v>205.99668934649807</v>
+      </c>
+      <c r="H15" s="5">
+        <f>G15*Modell!$G$5</f>
+        <v>20.599668934649806</v>
+      </c>
+      <c r="I15" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J15" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>43904</v>
+      </c>
+      <c r="B16" s="4">
+        <v>693</v>
+      </c>
+      <c r="C16" s="5">
+        <f>IF(ISNA(B16), (1 + Modell!$G$4)*C15, C15+B16)</f>
+        <v>3005</v>
+      </c>
+      <c r="D16" s="4">
+        <f>C16-C15</f>
+        <v>693</v>
+      </c>
+      <c r="E16" s="5">
+        <f>Modell!$B$5*D16</f>
+        <v>69.3</v>
+      </c>
+      <c r="F16" s="6">
+        <f>Modell!$G$6 * G15</f>
+        <v>8.2398675738599234</v>
+      </c>
+      <c r="G16" s="5">
+        <f>G15+E16-F16</f>
+        <v>267.05682177263816</v>
+      </c>
+      <c r="H16" s="5">
+        <f>G16*Modell!$G$5</f>
+        <v>26.705682177263814</v>
+      </c>
+      <c r="I16" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J16" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>43905</v>
+      </c>
+      <c r="B17" s="4">
+        <v>733</v>
+      </c>
+      <c r="C17" s="5">
+        <f>IF(ISNA(B17), (1 + Modell!$G$4)*C16, C16+B17)</f>
+        <v>3738</v>
+      </c>
+      <c r="D17" s="4">
+        <f>C17-C16</f>
+        <v>733</v>
+      </c>
+      <c r="E17" s="5">
+        <f>Modell!$B$5*D17</f>
+        <v>73.3</v>
+      </c>
+      <c r="F17" s="6">
+        <f>Modell!$G$6 * G16</f>
+        <v>10.682272870905527</v>
+      </c>
+      <c r="G17" s="5">
+        <f>G16+E17-F17</f>
+        <v>329.67454890173263</v>
+      </c>
+      <c r="H17" s="5">
+        <f>G17*Modell!$G$5</f>
+        <v>32.967454890173258</v>
+      </c>
+      <c r="I17" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J17" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>43906</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1043</v>
+      </c>
+      <c r="C18" s="5">
+        <f>IF(ISNA(B18), (1 + Modell!$G$4)*C17, C17+B18)</f>
+        <v>4781</v>
+      </c>
+      <c r="D18" s="4">
+        <f>C18-C17</f>
+        <v>1043</v>
+      </c>
+      <c r="E18" s="5">
+        <f>Modell!$B$5*D18</f>
+        <v>104.30000000000001</v>
+      </c>
+      <c r="F18" s="6">
+        <f>Modell!$G$6 * G17</f>
+        <v>13.186981956069305</v>
+      </c>
+      <c r="G18" s="5">
+        <f>G17+E18-F18</f>
+        <v>420.78756694566334</v>
+      </c>
+      <c r="H18" s="5">
+        <f>G18*Modell!$G$5</f>
+        <v>42.07875669456633</v>
+      </c>
+      <c r="I18" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J18" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>43907</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1174</v>
+      </c>
+      <c r="C19" s="5">
+        <f>IF(ISNA(B19), (1 + Modell!$G$4)*C18, C18+B19)</f>
+        <v>5955</v>
+      </c>
+      <c r="D19" s="4">
+        <f>C19-C18</f>
+        <v>1174</v>
+      </c>
+      <c r="E19" s="5">
+        <f>Modell!$B$5*D19</f>
+        <v>117.4</v>
+      </c>
+      <c r="F19" s="6">
+        <f>Modell!$G$6 * G18</f>
+        <v>16.831502677826535</v>
+      </c>
+      <c r="G19" s="5">
+        <f>G18+E19-F19</f>
+        <v>521.35606426783681</v>
+      </c>
+      <c r="H19" s="5">
+        <f>G19*Modell!$G$5</f>
+        <v>52.135606426783674</v>
+      </c>
+      <c r="I19" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J19" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>43908</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1144</v>
+      </c>
+      <c r="C20" s="5">
+        <f>IF(ISNA(B20), (1 + Modell!$G$4)*C19, C19+B20)</f>
+        <v>7099</v>
+      </c>
+      <c r="D20" s="4">
+        <f>C20-C19</f>
+        <v>1144</v>
+      </c>
+      <c r="E20" s="5">
+        <f>Modell!$B$5*D20</f>
+        <v>114.4</v>
+      </c>
+      <c r="F20" s="6">
+        <f>Modell!$G$6 * G19</f>
+        <v>20.854242570713474</v>
+      </c>
+      <c r="G20" s="5">
+        <f>G19+E20-F20</f>
+        <v>614.9018216971233</v>
+      </c>
+      <c r="H20" s="5">
+        <f>G20*Modell!$G$5</f>
+        <v>61.490182169712327</v>
+      </c>
+      <c r="I20" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J20" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>43909</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1042</v>
+      </c>
+      <c r="C21" s="5">
+        <f>IF(ISNA(B21), (1 + Modell!$G$4)*C20, C20+B21)</f>
+        <v>8141</v>
+      </c>
+      <c r="D21" s="4">
+        <f>C21-C20</f>
+        <v>1042</v>
+      </c>
+      <c r="E21" s="5">
+        <f>Modell!$B$5*D21</f>
+        <v>104.2</v>
+      </c>
+      <c r="F21" s="6">
+        <f>Modell!$G$6 * G20</f>
+        <v>24.596072867884931</v>
+      </c>
+      <c r="G21" s="5">
+        <f>G20+E21-F21</f>
+        <v>694.50574882923843</v>
+      </c>
+      <c r="H21" s="5">
+        <f>G21*Modell!$G$5</f>
+        <v>69.450574882923831</v>
+      </c>
+      <c r="I21" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J21" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>43910</v>
+      </c>
+      <c r="B22" s="4">
+        <v>5940</v>
+      </c>
+      <c r="C22" s="5">
+        <f>IF(ISNA(B22), (1 + Modell!$G$4)*C21, C21+B22)</f>
+        <v>14081</v>
+      </c>
+      <c r="D22" s="4">
+        <f>C22-C21</f>
+        <v>5940</v>
+      </c>
+      <c r="E22" s="5">
+        <f>Modell!$B$5*D22</f>
+        <v>594</v>
+      </c>
+      <c r="F22" s="6">
+        <f>Modell!$G$6 * G21</f>
+        <v>27.780229953169538</v>
+      </c>
+      <c r="G22" s="5">
+        <f>G21+E22-F22</f>
+        <v>1260.7255188760689</v>
+      </c>
+      <c r="H22" s="5">
+        <f>G22*Modell!$G$5</f>
+        <v>126.07255188760688</v>
+      </c>
+      <c r="I22" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J22" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>43911</v>
+      </c>
+      <c r="B23" s="4">
+        <v>4049</v>
+      </c>
+      <c r="C23" s="5">
+        <f>IF(ISNA(B23), (1 + Modell!$G$4)*C22, C22+B23)</f>
+        <v>18130</v>
+      </c>
+      <c r="D23" s="4">
+        <f>C23-C22</f>
+        <v>4049</v>
+      </c>
+      <c r="E23" s="5">
+        <f>Modell!$B$5*D23</f>
+        <v>404.90000000000003</v>
+      </c>
+      <c r="F23" s="6">
+        <f>Modell!$G$6 * G22</f>
+        <v>50.429020755042757</v>
+      </c>
+      <c r="G23" s="5">
+        <f>G22+E23-F23</f>
+        <v>1615.1964981210263</v>
+      </c>
+      <c r="H23" s="5">
+        <f>G23*Modell!$G$5</f>
+        <v>161.51964981210261</v>
+      </c>
+      <c r="I23" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J23" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>43912</v>
+      </c>
+      <c r="B24" s="4">
+        <v>3276</v>
+      </c>
+      <c r="C24" s="5">
+        <f>IF(ISNA(B24), (1 + Modell!$G$4)*C23, C23+B24)</f>
+        <v>21406</v>
+      </c>
+      <c r="D24" s="4">
+        <f>C24-C23</f>
+        <v>3276</v>
+      </c>
+      <c r="E24" s="5">
+        <f>Modell!$B$5*D24</f>
+        <v>327.60000000000002</v>
+      </c>
+      <c r="F24" s="6">
+        <f>Modell!$G$6 * G23</f>
+        <v>64.607859924841051</v>
+      </c>
+      <c r="G24" s="5">
+        <f>G23+E24-F24</f>
+        <v>1878.1886381961851</v>
+      </c>
+      <c r="H24" s="5">
+        <f>G24*Modell!$G$5</f>
+        <v>187.81886381961849</v>
+      </c>
+      <c r="I24" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J24" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B25" s="4">
+        <v>3311</v>
+      </c>
+      <c r="C25" s="5">
+        <f>IF(ISNA(B25), (1 + Modell!$G$4)*C24, C24+B25)</f>
+        <v>24717</v>
+      </c>
+      <c r="D25" s="4">
+        <f>C25-C24</f>
+        <v>3311</v>
+      </c>
+      <c r="E25" s="5">
+        <f>Modell!$B$5*D25</f>
+        <v>331.1</v>
+      </c>
+      <c r="F25" s="6">
+        <f>Modell!$G$6 * G24</f>
+        <v>75.127545527847403</v>
+      </c>
+      <c r="G25" s="5">
+        <f>G24+E25-F25</f>
+        <v>2134.1610926683379</v>
+      </c>
+      <c r="H25" s="5">
+        <f>G25*Modell!$G$5</f>
+        <v>213.41610926683379</v>
+      </c>
+      <c r="I25" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J25" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B26" s="4">
+        <v>4438</v>
+      </c>
+      <c r="C26" s="5">
+        <f>IF(ISNA(B26), (1 + Modell!$G$4)*C25, C25+B26)</f>
+        <v>29155</v>
+      </c>
+      <c r="D26" s="4">
+        <f>C26-C25</f>
+        <v>4438</v>
+      </c>
+      <c r="E26" s="5">
+        <f>Modell!$B$5*D26</f>
+        <v>443.8</v>
+      </c>
+      <c r="F26" s="6">
+        <f>Modell!$G$6 * G25</f>
+        <v>85.36644370673352</v>
+      </c>
+      <c r="G26" s="5">
+        <f>G25+E26-F26</f>
+        <v>2492.5946489616044</v>
+      </c>
+      <c r="H26" s="5">
+        <f>G26*Modell!$G$5</f>
+        <v>249.25946489616041</v>
+      </c>
+      <c r="I26" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J26" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>43915</v>
+      </c>
+      <c r="B27" s="4">
+        <v>2342</v>
+      </c>
+      <c r="C27" s="5">
+        <f>IF(ISNA(B27), (1 + Modell!$G$4)*C26, C26+B27)</f>
+        <v>31497</v>
+      </c>
+      <c r="D27" s="4">
+        <f>C27-C26</f>
+        <v>2342</v>
+      </c>
+      <c r="E27" s="5">
+        <f>Modell!$B$5*D27</f>
+        <v>234.20000000000002</v>
+      </c>
+      <c r="F27" s="6">
+        <f>Modell!$G$6 * G26</f>
+        <v>99.703785958464181</v>
+      </c>
+      <c r="G27" s="5">
+        <f>G26+E27-F27</f>
+        <v>2627.0908630031399</v>
+      </c>
+      <c r="H27" s="5">
+        <f>G27*Modell!$G$5</f>
+        <v>262.70908630031397</v>
+      </c>
+      <c r="I27" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J27" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C28" s="5">
+        <f>IF(ISNA(B28), (1 + Modell!$G$4)*C27, C27+B28)</f>
+        <v>35727.441511590485</v>
+      </c>
+      <c r="D28" s="4">
+        <f>C28-C27</f>
+        <v>4230.4415115904849</v>
+      </c>
+      <c r="E28" s="5">
+        <f>Modell!$B$5*D28</f>
+        <v>423.04415115904851</v>
+      </c>
+      <c r="F28" s="6">
+        <f>Modell!$G$6 * G27</f>
+        <v>105.0836345201256</v>
+      </c>
+      <c r="G28" s="5">
+        <f>G27+E28-F28</f>
+        <v>2945.0513796420628</v>
+      </c>
+      <c r="H28" s="5">
+        <f>G28*Modell!$G$5</f>
+        <v>294.50513796420626</v>
+      </c>
+      <c r="I28" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J28" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C29" s="5">
+        <f>IF(ISNA(B29), (1 + Modell!$G$4)*C28, C28+B29)</f>
+        <v>40526.084292603075</v>
+      </c>
+      <c r="D29" s="4">
+        <f>C29-C28</f>
+        <v>4798.6427810125897</v>
+      </c>
+      <c r="E29" s="5">
+        <f>Modell!$B$5*D29</f>
+        <v>479.864278101259</v>
+      </c>
+      <c r="F29" s="6">
+        <f>Modell!$G$6 * G28</f>
+        <v>117.80205518568252</v>
+      </c>
+      <c r="G29" s="5">
+        <f>G28+E29-F29</f>
+        <v>3307.1136025576393</v>
+      </c>
+      <c r="H29" s="5">
+        <f>G29*Modell!$G$5</f>
+        <v>330.71136025576391</v>
+      </c>
+      <c r="I29" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J29" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C30" s="5">
+        <f>IF(ISNA(B30), (1 + Modell!$G$4)*C29, C29+B30)</f>
+        <v>45969.244888648514</v>
+      </c>
+      <c r="D30" s="4">
+        <f>C30-C29</f>
+        <v>5443.1605960454399</v>
+      </c>
+      <c r="E30" s="5">
+        <f>Modell!$B$5*D30</f>
+        <v>544.31605960454397</v>
+      </c>
+      <c r="F30" s="6">
+        <f>Modell!$G$6 * G29</f>
+        <v>132.28454410230557</v>
+      </c>
+      <c r="G30" s="5">
+        <f>G29+E30-F30</f>
+        <v>3719.1451180598779</v>
+      </c>
+      <c r="H30" s="5">
+        <f>G30*Modell!$G$5</f>
+        <v>371.91451180598773</v>
+      </c>
+      <c r="I30" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J30" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C31" s="5">
+        <f>IF(ISNA(B31), (1 + Modell!$G$4)*C30, C30+B31)</f>
+        <v>52143.490113063774</v>
+      </c>
+      <c r="D31" s="4">
+        <f>C31-C30</f>
+        <v>6174.2452244152591</v>
+      </c>
+      <c r="E31" s="5">
+        <f>Modell!$B$5*D31</f>
+        <v>617.42452244152594</v>
+      </c>
+      <c r="F31" s="6">
+        <f>Modell!$G$6 * G30</f>
+        <v>148.76580472239513</v>
+      </c>
+      <c r="G31" s="5">
+        <f>G30+E31-F31</f>
+        <v>4187.8038357790092</v>
+      </c>
+      <c r="H31" s="5">
+        <f>G31*Modell!$G$5</f>
+        <v>418.78038357790086</v>
+      </c>
+      <c r="I31" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J31" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C32" s="5">
+        <f>IF(ISNA(B32), (1 + Modell!$G$4)*C31, C31+B32)</f>
+        <v>59147.013786223535</v>
+      </c>
+      <c r="D32" s="4">
+        <f>C32-C31</f>
+        <v>7003.5236731597615</v>
+      </c>
+      <c r="E32" s="5">
+        <f>Modell!$B$5*D32</f>
+        <v>700.35236731597615</v>
+      </c>
+      <c r="F32" s="6">
+        <f>Modell!$G$6 * G31</f>
+        <v>167.51215343116039</v>
+      </c>
+      <c r="G32" s="5">
+        <f>G31+E32-F32</f>
+        <v>4720.6440496638252</v>
+      </c>
+      <c r="H32" s="5">
+        <f>G32*Modell!$G$5</f>
+        <v>472.06440496638248</v>
+      </c>
+      <c r="I32" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J32" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C33" s="5">
+        <f>IF(ISNA(B33), (1 + Modell!$G$4)*C32, C32+B33)</f>
+        <v>67091.198388181016</v>
+      </c>
+      <c r="D33" s="4">
+        <f>C33-C32</f>
+        <v>7944.1846019574805</v>
+      </c>
+      <c r="E33" s="5">
+        <f>Modell!$B$5*D33</f>
+        <v>794.41846019574814</v>
+      </c>
+      <c r="F33" s="6">
+        <f>Modell!$G$6 * G32</f>
+        <v>188.825761986553</v>
+      </c>
+      <c r="G33" s="5">
+        <f>G32+E33-F33</f>
+        <v>5326.2367478730212</v>
+      </c>
+      <c r="H33" s="5">
+        <f>G33*Modell!$G$5</f>
+        <v>532.62367478730209</v>
+      </c>
+      <c r="I33" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J33" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C34" s="5">
+        <f>IF(ISNA(B34), (1 + Modell!$G$4)*C33, C33+B34)</f>
+        <v>76102.386460813766</v>
+      </c>
+      <c r="D34" s="4">
+        <f>C34-C33</f>
+        <v>9011.1880726327508</v>
+      </c>
+      <c r="E34" s="5">
+        <f>Modell!$B$5*D34</f>
+        <v>901.11880726327513</v>
+      </c>
+      <c r="F34" s="6">
+        <f>Modell!$G$6 * G33</f>
+        <v>213.04946991492085</v>
+      </c>
+      <c r="G34" s="5">
+        <f>G33+E34-F34</f>
+        <v>6014.3060852213748</v>
+      </c>
+      <c r="H34" s="5">
+        <f>G34*Modell!$G$5</f>
+        <v>601.43060852213739</v>
+      </c>
+      <c r="I34" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J34" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C35" s="5">
+        <f>IF(ISNA(B35), (1 + Modell!$G$4)*C34, C34+B35)</f>
+        <v>86323.889931459489</v>
+      </c>
+      <c r="D35" s="4">
+        <f>C35-C34</f>
+        <v>10221.503470645723</v>
+      </c>
+      <c r="E35" s="5">
+        <f>Modell!$B$5*D35</f>
+        <v>1022.1503470645723</v>
+      </c>
+      <c r="F35" s="6">
+        <f>Modell!$G$6 * G34</f>
+        <v>240.572243408855</v>
+      </c>
+      <c r="G35" s="5">
+        <f>G34+E35-F35</f>
+        <v>6795.8841888770921</v>
+      </c>
+      <c r="H35" s="5">
+        <f>G35*Modell!$G$5</f>
+        <v>679.58841888770917</v>
+      </c>
+      <c r="I35" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J35" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C36" s="5">
+        <f>IF(ISNA(B36), (1 + Modell!$G$4)*C35, C35+B36)</f>
+        <v>97918.269313877317</v>
+      </c>
+      <c r="D36" s="4">
+        <f>C36-C35</f>
+        <v>11594.379382417828</v>
+      </c>
+      <c r="E36" s="5">
+        <f>Modell!$B$5*D36</f>
+        <v>1159.4379382417828</v>
+      </c>
+      <c r="F36" s="6">
+        <f>Modell!$G$6 * G35</f>
+        <v>271.83536755508368</v>
+      </c>
+      <c r="G36" s="5">
+        <f>G35+E36-F36</f>
+        <v>7683.4867595637916</v>
+      </c>
+      <c r="H36" s="5">
+        <f>G36*Modell!$G$5</f>
+        <v>768.34867595637911</v>
+      </c>
+      <c r="I36" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J36" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C37" s="5">
+        <f>IF(ISNA(B37), (1 + Modell!$G$4)*C36, C36+B37)</f>
+        <v>111069.91903443875</v>
+      </c>
+      <c r="D37" s="4">
+        <f>C37-C36</f>
+        <v>13151.649720561429</v>
+      </c>
+      <c r="E37" s="5">
+        <f>Modell!$B$5*D37</f>
+        <v>1315.1649720561429</v>
+      </c>
+      <c r="F37" s="6">
+        <f>Modell!$G$6 * G36</f>
+        <v>307.33947038255167</v>
+      </c>
+      <c r="G37" s="5">
+        <f>G36+E37-F37</f>
+        <v>8691.3122612373827</v>
+      </c>
+      <c r="H37" s="5">
+        <f>G37*Modell!$G$5</f>
+        <v>869.1312261237382</v>
+      </c>
+      <c r="I37" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J37" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C38" s="5">
+        <f>IF(ISNA(B38), (1 + Modell!$G$4)*C37, C37+B38)</f>
+        <v>125988.00000000004</v>
+      </c>
+      <c r="D38" s="4">
+        <f>C38-C37</f>
+        <v>14918.080965561297</v>
+      </c>
+      <c r="E38" s="5">
+        <f>Modell!$B$5*D38</f>
+        <v>1491.8080965561298</v>
+      </c>
+      <c r="F38" s="6">
+        <f>Modell!$G$6 * G37</f>
+        <v>347.6524904494953</v>
+      </c>
+      <c r="G38" s="5">
+        <f>G37+E38-F38</f>
+        <v>9835.4678673440176</v>
+      </c>
+      <c r="H38" s="5">
+        <f>G38*Modell!$G$5</f>
+        <v>983.54678673440162</v>
+      </c>
+      <c r="I38" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J38" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C39" s="5">
+        <f>IF(ISNA(B39), (1 + Modell!$G$4)*C38, C38+B39)</f>
+        <v>142909.766046362</v>
+      </c>
+      <c r="D39" s="4">
+        <f>C39-C38</f>
+        <v>16921.766046361954</v>
+      </c>
+      <c r="E39" s="5">
+        <f>Modell!$B$5*D39</f>
+        <v>1692.1766046361954</v>
+      </c>
+      <c r="F39" s="6">
+        <f>Modell!$G$6 * G38</f>
+        <v>393.41871469376071</v>
+      </c>
+      <c r="G39" s="5">
+        <f>G38+E39-F39</f>
+        <v>11134.225757286453</v>
+      </c>
+      <c r="H39" s="5">
+        <f>G39*Modell!$G$5</f>
+        <v>1113.4225757286451</v>
+      </c>
+      <c r="I39" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J39" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C40" s="5">
+        <f>IF(ISNA(B40), (1 + Modell!$G$4)*C39, C39+B40)</f>
+        <v>162104.33717041236</v>
+      </c>
+      <c r="D40" s="4">
+        <f>C40-C39</f>
+        <v>19194.571124050359</v>
+      </c>
+      <c r="E40" s="5">
+        <f>Modell!$B$5*D40</f>
+        <v>1919.457112405036</v>
+      </c>
+      <c r="F40" s="6">
+        <f>Modell!$G$6 * G39</f>
+        <v>445.3690302914581</v>
+      </c>
+      <c r="G40" s="5">
+        <f>G39+E40-F40</f>
+        <v>12608.313839400031</v>
+      </c>
+      <c r="H40" s="5">
+        <f>G40*Modell!$G$5</f>
+        <v>1260.831383940003</v>
+      </c>
+      <c r="I40" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J40" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C41" s="5">
+        <f>IF(ISNA(B41), (1 + Modell!$G$4)*C40, C40+B41)</f>
+        <v>183876.97955459412</v>
+      </c>
+      <c r="D41" s="4">
+        <f>C41-C40</f>
+        <v>21772.64238418176</v>
+      </c>
+      <c r="E41" s="5">
+        <f>Modell!$B$5*D41</f>
+        <v>2177.2642384181759</v>
+      </c>
+      <c r="F41" s="6">
+        <f>Modell!$G$6 * G40</f>
+        <v>504.33255357600126</v>
+      </c>
+      <c r="G41" s="5">
+        <f>G40+E41-F41</f>
+        <v>14281.245524242206</v>
+      </c>
+      <c r="H41" s="5">
+        <f>G41*Modell!$G$5</f>
+        <v>1428.1245524242204</v>
+      </c>
+      <c r="I41" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J41" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C42" s="5">
+        <f>IF(ISNA(B42), (1 + Modell!$G$4)*C41, C41+B42)</f>
+        <v>208573.96045225518</v>
+      </c>
+      <c r="D42" s="4">
+        <f>C42-C41</f>
+        <v>24696.980897661066</v>
+      </c>
+      <c r="E42" s="5">
+        <f>Modell!$B$5*D42</f>
+        <v>2469.6980897661069</v>
+      </c>
+      <c r="F42" s="6">
+        <f>Modell!$G$6 * G41</f>
+        <v>571.24982096968824</v>
+      </c>
+      <c r="G42" s="5">
+        <f>G41+E42-F42</f>
+        <v>16179.693793038625</v>
+      </c>
+      <c r="H42" s="5">
+        <f>G42*Modell!$G$5</f>
+        <v>1617.9693793038623</v>
+      </c>
+      <c r="I42" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J42" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C43" s="5">
+        <f>IF(ISNA(B43), (1 + Modell!$G$4)*C42, C42+B43)</f>
+        <v>236588.05514489426</v>
+      </c>
+      <c r="D43" s="4">
+        <f>C43-C42</f>
+        <v>28014.094692639075</v>
+      </c>
+      <c r="E43" s="5">
+        <f>Modell!$B$5*D43</f>
+        <v>2801.4094692639078</v>
+      </c>
+      <c r="F43" s="6">
+        <f>Modell!$G$6 * G42</f>
+        <v>647.18775172154506</v>
+      </c>
+      <c r="G43" s="5">
+        <f>G42+E43-F43</f>
+        <v>18333.915510580988</v>
+      </c>
+      <c r="H43" s="5">
+        <f>G43*Modell!$G$5</f>
+        <v>1833.3915510580987</v>
+      </c>
+      <c r="I43" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J43" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C44" s="5">
+        <f>IF(ISNA(B44), (1 + Modell!$G$4)*C43, C43+B44)</f>
+        <v>268364.79355272418</v>
+      </c>
+      <c r="D44" s="4">
+        <f>C44-C43</f>
+        <v>31776.738407829922</v>
+      </c>
+      <c r="E44" s="5">
+        <f>Modell!$B$5*D44</f>
+        <v>3177.6738407829926</v>
+      </c>
+      <c r="F44" s="6">
+        <f>Modell!$G$6 * G43</f>
+        <v>733.35662042323952</v>
+      </c>
+      <c r="G44" s="5">
+        <f>G43+E44-F44</f>
+        <v>20778.232730940741</v>
+      </c>
+      <c r="H44" s="5">
+        <f>G44*Modell!$G$5</f>
+        <v>2077.823273094074</v>
+      </c>
+      <c r="I44" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J44" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C45" s="5">
+        <f>IF(ISNA(B45), (1 + Modell!$G$4)*C44, C44+B45)</f>
+        <v>304409.54584325518</v>
+      </c>
+      <c r="D45" s="4">
+        <f>C45-C44</f>
+        <v>36044.752290531003</v>
+      </c>
+      <c r="E45" s="5">
+        <f>Modell!$B$5*D45</f>
+        <v>3604.4752290531005</v>
+      </c>
+      <c r="F45" s="6">
+        <f>Modell!$G$6 * G44</f>
+        <v>831.12930923762963</v>
+      </c>
+      <c r="G45" s="5">
+        <f>G44+E45-F45</f>
+        <v>23551.578650756212</v>
+      </c>
+      <c r="H45" s="5">
+        <f>G45*Modell!$G$5</f>
+        <v>2355.157865075621</v>
+      </c>
+      <c r="I45" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J45" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C46" s="5">
+        <f>IF(ISNA(B46), (1 + Modell!$G$4)*C45, C45+B46)</f>
+        <v>345295.55972583807</v>
+      </c>
+      <c r="D46" s="4">
+        <f>C46-C45</f>
+        <v>40886.013882582891</v>
+      </c>
+      <c r="E46" s="5">
+        <f>Modell!$B$5*D46</f>
+        <v>4088.6013882582893</v>
+      </c>
+      <c r="F46" s="6">
+        <f>Modell!$G$6 * G45</f>
+        <v>942.0631460302485</v>
+      </c>
+      <c r="G46" s="5">
+        <f>G45+E46-F46</f>
+        <v>26698.11689298425</v>
+      </c>
+      <c r="H46" s="5">
+        <f>G46*Modell!$G$5</f>
+        <v>2669.8116892984249</v>
+      </c>
+      <c r="I46" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J46" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C47" s="5">
+        <f>IF(ISNA(B47), (1 + Modell!$G$4)*C46, C46+B47)</f>
+        <v>391673.07725550939</v>
+      </c>
+      <c r="D47" s="4">
+        <f>C47-C46</f>
+        <v>46377.517529671313</v>
+      </c>
+      <c r="E47" s="5">
+        <f>Modell!$B$5*D47</f>
+        <v>4637.7517529671313</v>
+      </c>
+      <c r="F47" s="6">
+        <f>Modell!$G$6 * G46</f>
+        <v>1067.92467571937</v>
+      </c>
+      <c r="G47" s="5">
+        <f>G46+E47-F47</f>
+        <v>30267.943970232012</v>
+      </c>
+      <c r="H47" s="5">
+        <f>G47*Modell!$G$5</f>
+        <v>3026.7943970232009</v>
+      </c>
+      <c r="I47" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J47" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C48" s="5">
+        <f>IF(ISNA(B48), (1 + Modell!$G$4)*C47, C47+B48)</f>
+        <v>444279.67613775516</v>
+      </c>
+      <c r="D48" s="4">
+        <f>C48-C47</f>
+        <v>52606.598882245773</v>
+      </c>
+      <c r="E48" s="5">
+        <f>Modell!$B$5*D48</f>
+        <v>5260.659888224578</v>
+      </c>
+      <c r="F48" s="6">
+        <f>Modell!$G$6 * G47</f>
+        <v>1210.7177588092804</v>
+      </c>
+      <c r="G48" s="5">
+        <f>G47+E48-F48</f>
+        <v>34317.886099647309</v>
+      </c>
+      <c r="H48" s="5">
+        <f>G48*Modell!$G$5</f>
+        <v>3431.7886099647308</v>
+      </c>
+      <c r="I48" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J48" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C49" s="5">
+        <f>IF(ISNA(B49), (1 + Modell!$G$4)*C48, C48+B49)</f>
+        <v>503952.00000000035</v>
+      </c>
+      <c r="D49" s="4">
+        <f>C49-C48</f>
+        <v>59672.32386224519</v>
+      </c>
+      <c r="E49" s="5">
+        <f>Modell!$B$5*D49</f>
+        <v>5967.2323862245194</v>
+      </c>
+      <c r="F49" s="6">
+        <f>Modell!$G$6 * G48</f>
+        <v>1372.7154439858923</v>
+      </c>
+      <c r="G49" s="5">
+        <f>G48+E49-F49</f>
+        <v>38912.403041885933</v>
+      </c>
+      <c r="H49" s="5">
+        <f>G49*Modell!$G$5</f>
+        <v>3891.2403041885927</v>
+      </c>
+      <c r="I49" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J49" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C50" s="5">
+        <f>IF(ISNA(B50), (1 + Modell!$G$4)*C49, C49+B50)</f>
+        <v>571639.06418544822</v>
+      </c>
+      <c r="D50" s="4">
+        <f>C50-C49</f>
+        <v>67687.064185447874</v>
+      </c>
+      <c r="E50" s="5">
+        <f>Modell!$B$5*D50</f>
+        <v>6768.706418544788</v>
+      </c>
+      <c r="F50" s="6">
+        <f>Modell!$G$6 * G49</f>
+        <v>1556.4961216754373</v>
+      </c>
+      <c r="G50" s="5">
+        <f>G49+E50-F50</f>
+        <v>44124.613338755284</v>
+      </c>
+      <c r="H50" s="5">
+        <f>G50*Modell!$G$5</f>
+        <v>4412.461333875528</v>
+      </c>
+      <c r="I50" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J50" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C51" s="5">
+        <f>IF(ISNA(B51), (1 + Modell!$G$4)*C50, C50+B51)</f>
+        <v>648417.34868164978</v>
+      </c>
+      <c r="D51" s="4">
+        <f>C51-C50</f>
+        <v>76778.284496201552</v>
+      </c>
+      <c r="E51" s="5">
+        <f>Modell!$B$5*D51</f>
+        <v>7677.8284496201559</v>
+      </c>
+      <c r="F51" s="6">
+        <f>Modell!$G$6 * G50</f>
+        <v>1764.9845335502114</v>
+      </c>
+      <c r="G51" s="5">
+        <f>G50+E51-F51</f>
+        <v>50037.457254825225</v>
+      </c>
+      <c r="H51" s="5">
+        <f>G51*Modell!$G$5</f>
+        <v>5003.7457254825222</v>
+      </c>
+      <c r="I51" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J51" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C52" s="5">
+        <f>IF(ISNA(B52), (1 + Modell!$G$4)*C51, C51+B52)</f>
+        <v>735507.91821837693</v>
+      </c>
+      <c r="D52" s="4">
+        <f>C52-C51</f>
+        <v>87090.569536727155</v>
+      </c>
+      <c r="E52" s="5">
+        <f>Modell!$B$5*D52</f>
+        <v>8709.0569536727162</v>
+      </c>
+      <c r="F52" s="6">
+        <f>Modell!$G$6 * G51</f>
+        <v>2001.4982901930091</v>
+      </c>
+      <c r="G52" s="5">
+        <f>G51+E52-F52</f>
+        <v>56745.015918304933</v>
+      </c>
+      <c r="H52" s="5">
+        <f>G52*Modell!$G$5</f>
+        <v>5674.5015918304925</v>
+      </c>
+      <c r="I52" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J52" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C53" s="5">
+        <f>IF(ISNA(B53), (1 + Modell!$G$4)*C52, C52+B53)</f>
+        <v>834295.84180902119</v>
+      </c>
+      <c r="D53" s="4">
+        <f>C53-C52</f>
+        <v>98787.923590644263</v>
+      </c>
+      <c r="E53" s="5">
+        <f>Modell!$B$5*D53</f>
+        <v>9878.7923590644277</v>
+      </c>
+      <c r="F53" s="6">
+        <f>Modell!$G$6 * G52</f>
+        <v>2269.8006367321973</v>
+      </c>
+      <c r="G53" s="5">
+        <f>G52+E53-F53</f>
+        <v>64354.007640637166</v>
+      </c>
+      <c r="H53" s="5">
+        <f>G53*Modell!$G$5</f>
+        <v>6435.4007640637165</v>
+      </c>
+      <c r="I53" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J53" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C54" s="5">
+        <f>IF(ISNA(B54), (1 + Modell!$G$4)*C53, C53+B54)</f>
+        <v>946352.22057957749</v>
+      </c>
+      <c r="D54" s="4">
+        <f>C54-C53</f>
+        <v>112056.3787705563</v>
+      </c>
+      <c r="E54" s="5">
+        <f>Modell!$B$5*D54</f>
+        <v>11205.637877055631</v>
+      </c>
+      <c r="F54" s="6">
+        <f>Modell!$G$6 * G53</f>
+        <v>2574.1603056254867</v>
+      </c>
+      <c r="G54" s="5">
+        <f>G53+E54-F54</f>
+        <v>72985.485212067317</v>
+      </c>
+      <c r="H54" s="5">
+        <f>G54*Modell!$G$5</f>
+        <v>7298.5485212067315</v>
+      </c>
+      <c r="I54" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J54" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C55" s="5">
+        <f>IF(ISNA(B55), (1 + Modell!$G$4)*C54, C54+B55)</f>
+        <v>1073459.1742108974</v>
+      </c>
+      <c r="D55" s="4">
+        <f>C55-C54</f>
+        <v>127106.95363131992</v>
+      </c>
+      <c r="E55" s="5">
+        <f>Modell!$B$5*D55</f>
+        <v>12710.695363131992</v>
+      </c>
+      <c r="F55" s="6">
+        <f>Modell!$G$6 * G54</f>
+        <v>2919.4194084826927</v>
+      </c>
+      <c r="G55" s="5">
+        <f>G54+E55-F55</f>
+        <v>82776.76116671662</v>
+      </c>
+      <c r="H55" s="5">
+        <f>G55*Modell!$G$5</f>
+        <v>8277.6761166716606</v>
+      </c>
+      <c r="I55" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J55" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C56" s="5">
+        <f>IF(ISNA(B56), (1 + Modell!$G$4)*C55, C55+B56)</f>
+        <v>1217638.1833730217</v>
+      </c>
+      <c r="D56" s="4">
+        <f>C56-C55</f>
+        <v>144179.00916212425</v>
+      </c>
+      <c r="E56" s="5">
+        <f>Modell!$B$5*D56</f>
+        <v>14417.900916212426</v>
+      </c>
+      <c r="F56" s="6">
+        <f>Modell!$G$6 * G55</f>
+        <v>3311.0704466686648</v>
+      </c>
+      <c r="G56" s="5">
+        <f>G55+E56-F56</f>
+        <v>93883.591636260389</v>
+      </c>
+      <c r="H56" s="5">
+        <f>G56*Modell!$G$5</f>
+        <v>9388.3591636260389</v>
+      </c>
+      <c r="I56" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J56" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C57" s="5">
+        <f>IF(ISNA(B57), (1 + Modell!$G$4)*C56, C56+B57)</f>
+        <v>1381182.2389033535</v>
+      </c>
+      <c r="D57" s="4">
+        <f>C57-C56</f>
+        <v>163544.0555303318</v>
+      </c>
+      <c r="E57" s="5">
+        <f>Modell!$B$5*D57</f>
+        <v>16354.405553033181</v>
+      </c>
+      <c r="F57" s="6">
+        <f>Modell!$G$6 * G56</f>
+        <v>3755.3436654504158</v>
+      </c>
+      <c r="G57" s="5">
+        <f>G56+E57-F57</f>
+        <v>106482.65352384315</v>
+      </c>
+      <c r="H57" s="5">
+        <f>G57*Modell!$G$5</f>
+        <v>10648.265352384315</v>
+      </c>
+      <c r="I57" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J57" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C58" s="5">
+        <f>IF(ISNA(B58), (1 + Modell!$G$4)*C57, C57+B58)</f>
+        <v>1566692.3090220389</v>
+      </c>
+      <c r="D58" s="4">
+        <f>C58-C57</f>
+        <v>185510.07011868549</v>
+      </c>
+      <c r="E58" s="5">
+        <f>Modell!$B$5*D58</f>
+        <v>18551.007011868551</v>
+      </c>
+      <c r="F58" s="6">
+        <f>Modell!$G$6 * G57</f>
+        <v>4259.3061409537258</v>
+      </c>
+      <c r="G58" s="5">
+        <f>G57+E58-F58</f>
+        <v>120774.35439475797</v>
+      </c>
+      <c r="H58" s="5">
+        <f>G58*Modell!$G$5</f>
+        <v>12077.435439475796</v>
+      </c>
+      <c r="I58" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J58" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C59" s="5">
+        <f>IF(ISNA(B59), (1 + Modell!$G$4)*C58, C58+B59)</f>
+        <v>1777118.7045510223</v>
+      </c>
+      <c r="D59" s="4">
+        <f>C59-C58</f>
+        <v>210426.39552898332</v>
+      </c>
+      <c r="E59" s="5">
+        <f>Modell!$B$5*D59</f>
+        <v>21042.639552898334</v>
+      </c>
+      <c r="F59" s="6">
+        <f>Modell!$G$6 * G58</f>
+        <v>4830.9741757903194</v>
+      </c>
+      <c r="G59" s="5">
+        <f>G58+E59-F59</f>
+        <v>136986.01977186598</v>
+      </c>
+      <c r="H59" s="5">
+        <f>G59*Modell!$G$5</f>
+        <v>13698.601977186596</v>
+      </c>
+      <c r="I59" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J59" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C60" s="5">
+        <f>IF(ISNA(B60), (1 + Modell!$G$4)*C59, C59+B60)</f>
+        <v>2015808.0000000033</v>
+      </c>
+      <c r="D60" s="4">
+        <f>C60-C59</f>
+        <v>238689.29544898099</v>
+      </c>
+      <c r="E60" s="5">
+        <f>Modell!$B$5*D60</f>
+        <v>23868.929544898099</v>
+      </c>
+      <c r="F60" s="6">
+        <f>Modell!$G$6 * G59</f>
+        <v>5479.4407908746389</v>
+      </c>
+      <c r="G60" s="5">
+        <f>G59+E60-F60</f>
+        <v>155375.50852588943</v>
+      </c>
+      <c r="H60" s="5">
+        <f>G60*Modell!$G$5</f>
+        <v>15537.550852588942</v>
+      </c>
+      <c r="I60" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J60" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C61" s="5">
+        <f>IF(ISNA(B61), (1 + Modell!$G$4)*C60, C60+B61)</f>
+        <v>2286556.2567417948</v>
+      </c>
+      <c r="D61" s="4">
+        <f>C61-C60</f>
+        <v>270748.2567417915</v>
+      </c>
+      <c r="E61" s="5">
+        <f>Modell!$B$5*D61</f>
+        <v>27074.825674179152</v>
+      </c>
+      <c r="F61" s="6">
+        <f>Modell!$G$6 * G60</f>
+        <v>6215.0203410355771</v>
+      </c>
+      <c r="G61" s="5">
+        <f>G60+E61-F61</f>
+        <v>176235.31385903299</v>
+      </c>
+      <c r="H61" s="5">
+        <f>G61*Modell!$G$5</f>
+        <v>17623.531385903298</v>
+      </c>
+      <c r="I61" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J61" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C62" s="5">
+        <f>IF(ISNA(B62), (1 + Modell!$G$4)*C61, C61+B62)</f>
+        <v>2593669.394726601</v>
+      </c>
+      <c r="D62" s="4">
+        <f>C62-C61</f>
+        <v>307113.13798480621</v>
+      </c>
+      <c r="E62" s="5">
+        <f>Modell!$B$5*D62</f>
+        <v>30711.313798480624</v>
+      </c>
+      <c r="F62" s="6">
+        <f>Modell!$G$6 * G61</f>
+        <v>7049.41255436132</v>
+      </c>
+      <c r="G62" s="5">
+        <f>G61+E62-F62</f>
+        <v>199897.21510315227</v>
+      </c>
+      <c r="H62" s="5">
+        <f>G62*Modell!$G$5</f>
+        <v>19989.721510315227</v>
+      </c>
+      <c r="I62" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J62" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C63" s="5">
+        <f>IF(ISNA(B63), (1 + Modell!$G$4)*C62, C62+B63)</f>
+        <v>2942031.6728735096</v>
+      </c>
+      <c r="D63" s="4">
+        <f>C63-C62</f>
+        <v>348362.27814690862</v>
+      </c>
+      <c r="E63" s="5">
+        <f>Modell!$B$5*D63</f>
+        <v>34836.227814690865</v>
+      </c>
+      <c r="F63" s="6">
+        <f>Modell!$G$6 * G62</f>
+        <v>7995.8886041260912</v>
+      </c>
+      <c r="G63" s="5">
+        <f>G62+E63-F63</f>
+        <v>226737.55431371703</v>
+      </c>
+      <c r="H63" s="5">
+        <f>G63*Modell!$G$5</f>
+        <v>22673.755431371701</v>
+      </c>
+      <c r="I63" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J63" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C64" s="5">
+        <f>IF(ISNA(B64), (1 + Modell!$G$4)*C63, C63+B64)</f>
+        <v>3337183.3672360871</v>
+      </c>
+      <c r="D64" s="4">
+        <f>C64-C63</f>
+        <v>395151.69436257752</v>
+      </c>
+      <c r="E64" s="5">
+        <f>Modell!$B$5*D64</f>
+        <v>39515.169436257755</v>
+      </c>
+      <c r="F64" s="6">
+        <f>Modell!$G$6 * G63</f>
+        <v>9069.5021725486822</v>
+      </c>
+      <c r="G64" s="5">
+        <f>G63+E64-F64</f>
+        <v>257183.22157742613</v>
+      </c>
+      <c r="H64" s="5">
+        <f>G64*Modell!$G$5</f>
+        <v>25718.322157742612</v>
+      </c>
+      <c r="I64" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J64" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C65" s="5">
+        <f>IF(ISNA(B65), (1 + Modell!$G$4)*C64, C64+B65)</f>
+        <v>3785408.8823183128</v>
+      </c>
+      <c r="D65" s="4">
+        <f>C65-C64</f>
+        <v>448225.51508222567</v>
+      </c>
+      <c r="E65" s="5">
+        <f>Modell!$B$5*D65</f>
+        <v>44822.551508222568</v>
+      </c>
+      <c r="F65" s="6">
+        <f>Modell!$G$6 * G64</f>
+        <v>10287.328863097046</v>
+      </c>
+      <c r="G65" s="5">
+        <f>G64+E65-F65</f>
+        <v>291718.44422255165</v>
+      </c>
+      <c r="H65" s="5">
+        <f>G65*Modell!$G$5</f>
+        <v>29171.844422255162</v>
+      </c>
+      <c r="I65" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J65" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C66" s="5">
+        <f>IF(ISNA(B66), (1 + Modell!$G$4)*C65, C65+B66)</f>
+        <v>4293836.6968435925</v>
+      </c>
+      <c r="D66" s="4">
+        <f>C66-C65</f>
+        <v>508427.81452527968</v>
+      </c>
+      <c r="E66" s="5">
+        <f>Modell!$B$5*D66</f>
+        <v>50842.781452527968</v>
+      </c>
+      <c r="F66" s="6">
+        <f>Modell!$G$6 * G65</f>
+        <v>11668.737768902067</v>
+      </c>
+      <c r="G66" s="5">
+        <f>G65+E66-F66</f>
+        <v>330892.48790617753</v>
+      </c>
+      <c r="H66" s="5">
+        <f>G66*Modell!$G$5</f>
+        <v>33089.248790617748</v>
+      </c>
+      <c r="I66" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J66" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C67" s="5">
+        <f>IF(ISNA(B67), (1 + Modell!$G$4)*C66, C66+B67)</f>
+        <v>4870552.7334920894</v>
+      </c>
+      <c r="D67" s="4">
+        <f>C67-C66</f>
+        <v>576716.03664849699</v>
+      </c>
+      <c r="E67" s="5">
+        <f>Modell!$B$5*D67</f>
+        <v>57671.603664849703</v>
+      </c>
+      <c r="F67" s="6">
+        <f>Modell!$G$6 * G66</f>
+        <v>13235.699516247101</v>
+      </c>
+      <c r="G67" s="5">
+        <f>G66+E67-F67</f>
+        <v>375328.39205478015</v>
+      </c>
+      <c r="H67" s="5">
+        <f>G67*Modell!$G$5</f>
+        <v>37532.839205478012</v>
+      </c>
+      <c r="I67" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J67" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C68" s="5">
+        <f>IF(ISNA(B68), (1 + Modell!$G$4)*C67, C67+B68)</f>
+        <v>5524728.9556134166</v>
+      </c>
+      <c r="D68" s="4">
+        <f>C68-C67</f>
+        <v>654176.22212132718</v>
+      </c>
+      <c r="E68" s="5">
+        <f>Modell!$B$5*D68</f>
+        <v>65417.622212132723</v>
+      </c>
+      <c r="F68" s="6">
+        <f>Modell!$G$6 * G67</f>
+        <v>15013.135682191207</v>
+      </c>
+      <c r="G68" s="5">
+        <f>G67+E68-F68</f>
+        <v>425732.87858472165</v>
+      </c>
+      <c r="H68" s="5">
+        <f>G68*Modell!$G$5</f>
+        <v>42573.287858472162</v>
+      </c>
+      <c r="I68" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J68" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C69" s="5">
+        <f>IF(ISNA(B69), (1 + Modell!$G$4)*C68, C68+B69)</f>
+        <v>6266769.2360881586</v>
+      </c>
+      <c r="D69" s="4">
+        <f>C69-C68</f>
+        <v>742040.28047474194</v>
+      </c>
+      <c r="E69" s="5">
+        <f>Modell!$B$5*D69</f>
+        <v>74204.028047474203</v>
+      </c>
+      <c r="F69" s="6">
+        <f>Modell!$G$6 * G68</f>
+        <v>17029.315143388867</v>
+      </c>
+      <c r="G69" s="5">
+        <f>G68+E69-F69</f>
+        <v>482907.591488807</v>
+      </c>
+      <c r="H69" s="5">
+        <f>G69*Modell!$G$5</f>
+        <v>48290.759148880694</v>
+      </c>
+      <c r="I69" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J69" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C70" s="5">
+        <f>IF(ISNA(B70), (1 + Modell!$G$4)*C69, C69+B70)</f>
+        <v>7108474.8182040919</v>
+      </c>
+      <c r="D70" s="4">
+        <f>C70-C69</f>
+        <v>841705.5821159333</v>
+      </c>
+      <c r="E70" s="5">
+        <f>Modell!$B$5*D70</f>
+        <v>84170.558211593336</v>
+      </c>
+      <c r="F70" s="6">
+        <f>Modell!$G$6 * G69</f>
+        <v>19316.303659552279</v>
+      </c>
+      <c r="G70" s="5">
+        <f>G69+E70-F70</f>
+        <v>547761.84604084806</v>
+      </c>
+      <c r="H70" s="5">
+        <f>G70*Modell!$G$5</f>
+        <v>54776.184604084803</v>
+      </c>
+      <c r="I70" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J70" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C71" s="5">
+        <f>IF(ISNA(B71), (1 + Modell!$G$4)*C70, C70+B71)</f>
+        <v>8063232.0000000158</v>
+      </c>
+      <c r="D71" s="4">
+        <f>C71-C70</f>
+        <v>954757.18179592397</v>
+      </c>
+      <c r="E71" s="5">
+        <f>Modell!$B$5*D71</f>
+        <v>95475.718179592397</v>
+      </c>
+      <c r="F71" s="6">
+        <f>Modell!$G$6 * G70</f>
+        <v>21910.473841633924</v>
+      </c>
+      <c r="G71" s="5">
+        <f>G70+E71-F71</f>
+        <v>621327.09037880658</v>
+      </c>
+      <c r="H71" s="5">
+        <f>G71*Modell!$G$5</f>
+        <v>62132.709037880653</v>
+      </c>
+      <c r="I71" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J71" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B72" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C72" s="5">
+        <f>IF(ISNA(B72), (1 + Modell!$G$4)*C71, C71+B72)</f>
+        <v>9146225.0269671828</v>
+      </c>
+      <c r="D72" s="4">
+        <f>C72-C71</f>
+        <v>1082993.0269671669</v>
+      </c>
+      <c r="E72" s="5">
+        <f>Modell!$B$5*D72</f>
+        <v>108299.3026967167</v>
+      </c>
+      <c r="F72" s="6">
+        <f>Modell!$G$6 * G71</f>
+        <v>24853.083615152264</v>
+      </c>
+      <c r="G72" s="5">
+        <f>G71+E72-F72</f>
+        <v>704773.30946037103</v>
+      </c>
+      <c r="H72" s="5">
+        <f>G72*Modell!$G$5</f>
+        <v>70477.330946037095</v>
+      </c>
+      <c r="I72" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J72" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C73" s="5">
+        <f>IF(ISNA(B73), (1 + Modell!$G$4)*C72, C72+B73)</f>
+        <v>10374677.578906408</v>
+      </c>
+      <c r="D73" s="4">
+        <f>C73-C72</f>
+        <v>1228452.5519392248</v>
+      </c>
+      <c r="E73" s="5">
+        <f>Modell!$B$5*D73</f>
+        <v>122845.25519392249</v>
+      </c>
+      <c r="F73" s="6">
+        <f>Modell!$G$6 * G72</f>
+        <v>28190.932378414844</v>
+      </c>
+      <c r="G73" s="5">
+        <f>G72+E73-F73</f>
+        <v>799427.63227587868</v>
+      </c>
+      <c r="H73" s="5">
+        <f>G73*Modell!$G$5</f>
+        <v>79942.763227587857</v>
+      </c>
+      <c r="I73" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J73" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C74" s="5">
+        <f>IF(ISNA(B74), (1 + Modell!$G$4)*C73, C73+B74)</f>
+        <v>11768126.691494044</v>
+      </c>
+      <c r="D74" s="4">
+        <f>C74-C73</f>
+        <v>1393449.1125876363</v>
+      </c>
+      <c r="E74" s="5">
+        <f>Modell!$B$5*D74</f>
+        <v>139344.91125876363</v>
+      </c>
+      <c r="F74" s="6">
+        <f>Modell!$G$6 * G73</f>
+        <v>31977.105291035146</v>
+      </c>
+      <c r="G74" s="5">
+        <f>G73+E74-F74</f>
+        <v>906795.43824360718</v>
+      </c>
+      <c r="H74" s="5">
+        <f>G74*Modell!$G$5</f>
+        <v>90679.543824360706</v>
+      </c>
+      <c r="I74" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J74" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C75" s="5">
+        <f>IF(ISNA(B75), (1 + Modell!$G$4)*C74, C74+B75)</f>
+        <v>13348733.468944354</v>
+      </c>
+      <c r="D75" s="4">
+        <f>C75-C74</f>
+        <v>1580606.7774503101</v>
+      </c>
+      <c r="E75" s="5">
+        <f>Modell!$B$5*D75</f>
+        <v>158060.67774503102</v>
+      </c>
+      <c r="F75" s="6">
+        <f>Modell!$G$6 * G74</f>
+        <v>36271.817529744287</v>
+      </c>
+      <c r="G75" s="5">
+        <f>G74+E75-F75</f>
+        <v>1028584.298458894</v>
+      </c>
+      <c r="H75" s="5">
+        <f>G75*Modell!$G$5</f>
+        <v>102858.42984588939</v>
+      </c>
+      <c r="I75" s="5">
+        <f>Modell!$G$7</f>
+        <v>5599.9999999999991</v>
+      </c>
+      <c r="J75" s="5">
+        <f>Modell!$G$8</f>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="1"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="1"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="1"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="1"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="1"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" s="1"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" s="1"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" s="1"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" s="1"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" s="1"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" s="1"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" s="1"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" s="1"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" s="1"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" s="1"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" s="1"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" s="1"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" s="1"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" s="1"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" s="1"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" s="1"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" s="1"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" s="1"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" s="1"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" s="1"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>